--- a/Documents/Testing/TestsDocuments/ms6/ms6-traceability-matrix-group5.xlsx
+++ b/Documents/Testing/TestsDocuments/ms6/ms6-traceability-matrix-group5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="908" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="908" uniqueCount="183">
   <si>
     <t>Business Requirements</t>
   </si>
@@ -778,6 +778,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>Integration Test:</t>
     </r>
     <r>
@@ -987,8 +995,78 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">To test all functions work harmoniously together and produce the expected outcomes, as demonstrated in the sample output, </t>
-    </r>
+      <t>(same as above)</t>
+    </r>
+  </si>
+  <si>
+    <t>(same as above)</t>
+  </si>
+  <si>
+    <t>(1st) 500 1.0 12D</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Ship on </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>YELLOW LINE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, no diversion</t>
+    </r>
+  </si>
+  <si>
+    <t>(2nd) 500 1.0 12D</t>
+  </si>
+  <si>
+    <t>(1st) 500 1.0 12L</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Ship on </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>BLUE LINE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, no diversion</t>
+    </r>
+  </si>
+  <si>
+    <t>(2nd) 500 1.0 12L</t>
+  </si>
+  <si>
+    <t>(3rd) 500 1.0 12L</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -998,29 +1076,6 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>from developers' and QA's perspective</t>
-    </r>
-  </si>
-  <si>
-    <t>(1st) 500 1.0 12D</t>
-  </si>
-  <si>
-    <t>vs4 - expected output</t>
-  </si>
-  <si>
-    <t>(2nd) 500 1.0 12D</t>
-  </si>
-  <si>
-    <t>(1st) 500 1.0 12L</t>
-  </si>
-  <si>
-    <t>(2nd) 500 1.0 12L</t>
-  </si>
-  <si>
-    <t>(3rd) 500 1.0 12L</t>
-  </si>
-  <si>
-    <r>
       <t>Acceptance Test i - MS5:</t>
     </r>
     <r>
@@ -1139,13 +1194,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>Ship on</t>
     </r>
     <r>
@@ -1215,6 +1263,39 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Ship on</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> BLUE LINE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, divert 18V, 17V, 16V, 15V, 14V, 13V, 12V, 11V, 10V, 9V, 
+8V, 7V, 7W, 7X, 7Y, 8Y</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <t>Acceptance Test ii - MS6:</t>
     </r>
     <r>
@@ -1226,20 +1307,11 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-To test all functions work harmoniously together and produce the expected outcomes, as demonstrated in the sample output,</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> from user perspective</t>
-    </r>
+(same as above)</t>
+    </r>
+  </si>
+  <si>
+    <t>All TRUCKS NEARBY ARE IN FULL CAPACITY</t>
   </si>
 </sst>
 </file>
@@ -1271,13 +1343,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -1500,13 +1565,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFFC000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF0070C0"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1534,6 +1606,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.15"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1901,68 +1985,62 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1971,10 +2049,10 @@
     <xf numFmtId="0" fontId="27" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1983,10 +2061,10 @@
     <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1995,10 +2073,10 @@
     <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2007,10 +2085,10 @@
     <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2019,17 +2097,23 @@
     <xf numFmtId="0" fontId="27" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="27" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2046,6 +2130,12 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2076,8 +2166,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2085,19 +2178,16 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="6" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="6" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -2106,38 +2196,65 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -2460,3572 +2577,3572 @@
   <sheetPr/>
   <dimension ref="A1:R92"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="K51" workbookViewId="0">
-      <selection activeCell="P61" sqref="P61:P68"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="J79" workbookViewId="0">
+      <selection activeCell="P98" sqref="P98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="13.4444444444444" style="6" customWidth="1"/>
-    <col min="2" max="2" width="9" style="7" customWidth="1"/>
-    <col min="3" max="3" width="35.6666666666667" style="7" customWidth="1"/>
-    <col min="4" max="4" width="39.2222222222222" style="7" customWidth="1"/>
-    <col min="5" max="5" width="23.2222222222222" style="7" customWidth="1"/>
-    <col min="6" max="6" width="45.4444444444444" style="7" customWidth="1"/>
-    <col min="7" max="7" width="41.3333333333333" style="7" customWidth="1"/>
-    <col min="8" max="8" width="15.7777777777778" style="7" customWidth="1"/>
-    <col min="9" max="9" width="41.3333333333333" style="6" customWidth="1"/>
-    <col min="10" max="10" width="15.7777777777778" style="6" customWidth="1"/>
-    <col min="11" max="11" width="41.3333333333333" style="6" customWidth="1"/>
-    <col min="12" max="12" width="15.7777777777778" style="6" customWidth="1"/>
-    <col min="13" max="13" width="41.7777777777778" style="6" customWidth="1"/>
-    <col min="14" max="14" width="15.7777777777778" style="6" customWidth="1"/>
-    <col min="15" max="15" width="41.7777777777778" style="6" customWidth="1"/>
-    <col min="16" max="16" width="15.7777777777778" style="6" customWidth="1"/>
-    <col min="17" max="17" width="41.7777777777778" style="6" customWidth="1"/>
-    <col min="18" max="18" width="15.7777777777778" style="6" customWidth="1"/>
-    <col min="19" max="16384" width="9" style="6"/>
+    <col min="1" max="1" width="13.4444444444444" style="8" customWidth="1"/>
+    <col min="2" max="2" width="9" style="9" customWidth="1"/>
+    <col min="3" max="3" width="35.6666666666667" style="9" customWidth="1"/>
+    <col min="4" max="4" width="39.2222222222222" style="9" customWidth="1"/>
+    <col min="5" max="5" width="23.2222222222222" style="9" customWidth="1"/>
+    <col min="6" max="6" width="45.4444444444444" style="9" customWidth="1"/>
+    <col min="7" max="7" width="41.3333333333333" style="9" customWidth="1"/>
+    <col min="8" max="8" width="15.7777777777778" style="9" customWidth="1"/>
+    <col min="9" max="9" width="41.3333333333333" style="8" customWidth="1"/>
+    <col min="10" max="10" width="15.7777777777778" style="8" customWidth="1"/>
+    <col min="11" max="11" width="41.3333333333333" style="8" customWidth="1"/>
+    <col min="12" max="12" width="15.7777777777778" style="8" customWidth="1"/>
+    <col min="13" max="13" width="41.7777777777778" style="8" customWidth="1"/>
+    <col min="14" max="14" width="15.7777777777778" style="8" customWidth="1"/>
+    <col min="15" max="15" width="41.7777777777778" style="8" customWidth="1"/>
+    <col min="16" max="16" width="15.7777777777778" style="8" customWidth="1"/>
+    <col min="17" max="17" width="41.7777777777778" style="8" customWidth="1"/>
+    <col min="18" max="18" width="15.7777777777778" style="8" customWidth="1"/>
+    <col min="19" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.15" spans="9:13">
-      <c r="I1" s="27" t="s">
+      <c r="I1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
     </row>
     <row r="2" s="1" customFormat="1" ht="30" customHeight="1" spans="1:18">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="10" t="s">
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="11"/>
-      <c r="I2" s="10" t="s">
+      <c r="H2" s="13"/>
+      <c r="I2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="11"/>
-      <c r="K2" s="10" t="s">
+      <c r="J2" s="13"/>
+      <c r="K2" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="L2" s="11"/>
-      <c r="M2" s="10" t="s">
+      <c r="L2" s="13"/>
+      <c r="M2" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="N2" s="11"/>
-      <c r="O2" s="10" t="s">
+      <c r="N2" s="13"/>
+      <c r="O2" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="P2" s="11"/>
-      <c r="Q2" s="10" t="s">
+      <c r="P2" s="13"/>
+      <c r="Q2" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="R2" s="11"/>
+      <c r="R2" s="13"/>
     </row>
     <row r="3" ht="29.55" spans="1:18">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="12"/>
-      <c r="C3" s="13" t="s">
+      <c r="B3" s="14"/>
+      <c r="C3" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="14" t="s">
+      <c r="G3" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="15" t="s">
+      <c r="H3" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="14" t="s">
+      <c r="I3" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="J3" s="15" t="s">
+      <c r="J3" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="K3" s="14" t="s">
+      <c r="K3" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="L3" s="15" t="s">
+      <c r="L3" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="M3" s="14" t="s">
+      <c r="M3" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="N3" s="15" t="s">
+      <c r="N3" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="O3" s="14" t="s">
+      <c r="O3" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="P3" s="15" t="s">
+      <c r="P3" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="Q3" s="14" t="s">
+      <c r="Q3" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="R3" s="15" t="s">
+      <c r="R3" s="17" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="4" ht="43.2" customHeight="1" spans="2:18">
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="9">
         <v>1</v>
       </c>
-      <c r="F4" s="7" t="b">
+      <c r="F4" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="G4" s="7" t="b">
+      <c r="G4" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="H4" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I4" s="7" t="b">
+      <c r="H4" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="J4" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="K4" s="28" t="s">
+      <c r="J4" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="K4" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="L4" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="M4" s="28" t="s">
+      <c r="L4" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="M4" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="N4" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="O4" s="28" t="s">
+      <c r="N4" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="O4" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="P4" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q4" s="28" t="s">
+      <c r="P4" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q4" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="R4" s="20" t="s">
+      <c r="R4" s="22" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="5" spans="2:18">
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="7">
+      <c r="C5" s="11"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="9">
         <v>1000</v>
       </c>
-      <c r="F5" s="7" t="b">
+      <c r="F5" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="G5" s="7" t="b">
+      <c r="G5" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="H5" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I5" s="7" t="b">
+      <c r="H5" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="J5" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="K5" s="29"/>
-      <c r="L5" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="M5" s="29"/>
-      <c r="N5" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="O5" s="29"/>
-      <c r="P5" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q5" s="29"/>
-      <c r="R5" s="20" t="s">
+      <c r="J5" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="K5" s="31"/>
+      <c r="L5" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="M5" s="31"/>
+      <c r="N5" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="O5" s="31"/>
+      <c r="P5" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q5" s="31"/>
+      <c r="R5" s="22" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="6" spans="2:18">
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="7">
+      <c r="C6" s="11"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="9">
         <v>-0.1</v>
       </c>
-      <c r="F6" s="7" t="b">
+      <c r="F6" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="G6" s="7" t="b">
+      <c r="G6" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="H6" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I6" s="7" t="b">
+      <c r="H6" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="I6" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="J6" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="K6" s="29"/>
-      <c r="L6" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="M6" s="29"/>
-      <c r="N6" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="O6" s="29"/>
-      <c r="P6" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q6" s="29"/>
-      <c r="R6" s="20" t="s">
+      <c r="J6" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="K6" s="31"/>
+      <c r="L6" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="M6" s="31"/>
+      <c r="N6" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="O6" s="31"/>
+      <c r="P6" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q6" s="31"/>
+      <c r="R6" s="22" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="7" spans="2:18">
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="7">
+      <c r="C7" s="11"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="9">
         <v>1000.1</v>
       </c>
-      <c r="F7" s="7" t="b">
+      <c r="F7" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="G7" s="7" t="b">
+      <c r="G7" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="H7" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I7" s="7" t="b">
+      <c r="H7" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="I7" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="J7" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="K7" s="29"/>
-      <c r="L7" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="M7" s="29"/>
-      <c r="N7" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="O7" s="29"/>
-      <c r="P7" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q7" s="29"/>
-      <c r="R7" s="20" t="s">
+      <c r="J7" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="K7" s="31"/>
+      <c r="L7" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="M7" s="31"/>
+      <c r="N7" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="O7" s="31"/>
+      <c r="P7" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q7" s="31"/>
+      <c r="R7" s="22" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="8" s="2" customFormat="1"/>
     <row r="9" ht="43.2" customHeight="1" spans="2:18">
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="16" t="s">
+      <c r="D9" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9" s="9">
         <v>0.25</v>
       </c>
-      <c r="F9" s="7" t="b">
+      <c r="F9" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="G9" s="7" t="b">
+      <c r="G9" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="H9" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I9" s="7" t="b">
+      <c r="H9" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="I9" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="J9" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="K9" s="29" t="s">
+      <c r="J9" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="K9" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="L9" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="M9" s="29" t="s">
+      <c r="L9" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="M9" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="N9" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="O9" s="29" t="s">
+      <c r="N9" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="O9" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="P9" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q9" s="29" t="s">
+      <c r="P9" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q9" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="R9" s="20" t="s">
+      <c r="R9" s="22" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="10" spans="2:18">
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="9"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="7">
+      <c r="C10" s="11"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="9">
         <v>0.5</v>
       </c>
-      <c r="F10" s="7" t="b">
+      <c r="F10" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="G10" s="7" t="b">
+      <c r="G10" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="H10" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I10" s="7" t="b">
+      <c r="H10" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="I10" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="J10" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="K10" s="29"/>
-      <c r="L10" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="M10" s="29"/>
-      <c r="N10" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="O10" s="29"/>
-      <c r="P10" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q10" s="29"/>
-      <c r="R10" s="20" t="s">
+      <c r="J10" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="K10" s="31"/>
+      <c r="L10" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="M10" s="31"/>
+      <c r="N10" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="O10" s="31"/>
+      <c r="P10" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q10" s="31"/>
+      <c r="R10" s="22" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="11" spans="2:18">
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="7">
+      <c r="C11" s="11"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="9">
         <v>1</v>
       </c>
-      <c r="F11" s="7" t="b">
+      <c r="F11" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="G11" s="7" t="b">
+      <c r="G11" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="H11" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I11" s="7" t="b">
+      <c r="H11" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="I11" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="J11" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="K11" s="29"/>
-      <c r="L11" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="M11" s="29"/>
-      <c r="N11" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="O11" s="29"/>
-      <c r="P11" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q11" s="29"/>
-      <c r="R11" s="20" t="s">
+      <c r="J11" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="K11" s="31"/>
+      <c r="L11" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="M11" s="31"/>
+      <c r="N11" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="O11" s="31"/>
+      <c r="P11" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q11" s="31"/>
+      <c r="R11" s="22" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="12" spans="2:18">
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="9"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="7">
+      <c r="C12" s="11"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="9">
         <v>0.24</v>
       </c>
-      <c r="F12" s="7" t="b">
+      <c r="F12" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="G12" s="7" t="b">
+      <c r="G12" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="H12" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I12" s="7" t="b">
+      <c r="H12" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="I12" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="J12" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="K12" s="29"/>
-      <c r="L12" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="M12" s="29"/>
-      <c r="N12" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="O12" s="29"/>
-      <c r="P12" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q12" s="29"/>
-      <c r="R12" s="20" t="s">
+      <c r="J12" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="K12" s="31"/>
+      <c r="L12" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="M12" s="31"/>
+      <c r="N12" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="O12" s="31"/>
+      <c r="P12" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q12" s="31"/>
+      <c r="R12" s="22" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="13" spans="2:18">
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="9"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="7">
+      <c r="C13" s="11"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="9">
         <v>-0.5</v>
       </c>
-      <c r="F13" s="7" t="b">
+      <c r="F13" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="G13" s="7" t="b">
+      <c r="G13" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="H13" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I13" s="7" t="b">
+      <c r="H13" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="I13" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="J13" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="K13" s="29"/>
-      <c r="L13" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="M13" s="29"/>
-      <c r="N13" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="O13" s="29"/>
-      <c r="P13" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q13" s="29"/>
-      <c r="R13" s="20" t="s">
+      <c r="J13" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="K13" s="31"/>
+      <c r="L13" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="M13" s="31"/>
+      <c r="N13" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="O13" s="31"/>
+      <c r="P13" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q13" s="31"/>
+      <c r="R13" s="22" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="14" spans="2:18">
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="9"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="7">
+      <c r="C14" s="11"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="9">
         <v>1.1</v>
       </c>
-      <c r="F14" s="7" t="b">
+      <c r="F14" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="G14" s="7" t="b">
+      <c r="G14" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="H14" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I14" s="7" t="b">
+      <c r="H14" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="I14" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="J14" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="K14" s="29"/>
-      <c r="L14" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="M14" s="29"/>
-      <c r="N14" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="O14" s="29"/>
-      <c r="P14" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q14" s="29"/>
-      <c r="R14" s="20" t="s">
+      <c r="J14" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="K14" s="31"/>
+      <c r="L14" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="M14" s="31"/>
+      <c r="N14" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="O14" s="31"/>
+      <c r="P14" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q14" s="31"/>
+      <c r="R14" s="22" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="15" s="2" customFormat="1"/>
     <row r="16" spans="2:18">
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="16" t="s">
+      <c r="C16" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="D16" s="16" t="s">
+      <c r="D16" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="E16" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="F16" s="7" t="b">
+      <c r="F16" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="G16" s="7" t="b">
+      <c r="G16" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="H16" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I16" s="7" t="b">
+      <c r="H16" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="I16" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="J16" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="K16" s="30" t="s">
+      <c r="J16" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="K16" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="L16" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="M16" s="30" t="s">
+      <c r="L16" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="M16" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="N16" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="O16" s="30" t="s">
+      <c r="N16" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="O16" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="P16" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q16" s="30" t="s">
+      <c r="P16" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q16" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="R16" s="20" t="s">
+      <c r="R16" s="22" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="17" spans="2:18">
-      <c r="B17" s="13" t="s">
+      <c r="B17" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="E17" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="F17" s="7" t="b">
+      <c r="F17" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="G17" s="18" t="b">
+      <c r="G17" s="20" t="b">
         <v>0</v>
       </c>
-      <c r="H17" s="19" t="s">
+      <c r="H17" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="I17" s="7" t="b">
+      <c r="I17" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="J17" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="K17" s="9"/>
-      <c r="L17" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="M17" s="9"/>
-      <c r="N17" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="O17" s="9"/>
-      <c r="P17" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q17" s="9"/>
-      <c r="R17" s="20" t="s">
+      <c r="J17" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="K17" s="11"/>
+      <c r="L17" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="M17" s="11"/>
+      <c r="N17" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="O17" s="11"/>
+      <c r="P17" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q17" s="11"/>
+      <c r="R17" s="22" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="18" spans="2:18">
-      <c r="B18" s="13" t="s">
+      <c r="B18" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="E18" s="7" t="s">
+      <c r="E18" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="F18" s="7" t="b">
+      <c r="F18" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="G18" s="18" t="b">
+      <c r="G18" s="20" t="b">
         <v>0</v>
       </c>
-      <c r="H18" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I18" s="18" t="b">
+      <c r="H18" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="I18" s="20" t="b">
         <v>0</v>
       </c>
-      <c r="J18" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="K18" s="9"/>
-      <c r="L18" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="M18" s="9"/>
-      <c r="N18" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="O18" s="9"/>
-      <c r="P18" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q18" s="9"/>
-      <c r="R18" s="20" t="s">
+      <c r="J18" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="K18" s="11"/>
+      <c r="L18" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="M18" s="11"/>
+      <c r="N18" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="O18" s="11"/>
+      <c r="P18" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q18" s="11"/>
+      <c r="R18" s="22" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="19" spans="2:18">
-      <c r="B19" s="13" t="s">
+      <c r="B19" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="E19" s="7" t="s">
+      <c r="E19" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="F19" s="7" t="b">
+      <c r="F19" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="G19" s="18" t="b">
+      <c r="G19" s="20" t="b">
         <v>0</v>
       </c>
-      <c r="H19" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I19" s="18" t="b">
+      <c r="H19" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="I19" s="20" t="b">
         <v>0</v>
       </c>
-      <c r="J19" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="K19" s="9"/>
-      <c r="L19" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="M19" s="9"/>
-      <c r="N19" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="O19" s="9"/>
-      <c r="P19" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q19" s="9"/>
-      <c r="R19" s="20" t="s">
+      <c r="J19" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="K19" s="11"/>
+      <c r="L19" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="M19" s="11"/>
+      <c r="N19" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="O19" s="11"/>
+      <c r="P19" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q19" s="11"/>
+      <c r="R19" s="22" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="20" spans="2:18">
-      <c r="B20" s="13" t="s">
+      <c r="B20" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="E20" s="7" t="s">
+      <c r="E20" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="F20" s="7" t="b">
+      <c r="F20" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="G20" s="18" t="b">
+      <c r="G20" s="20" t="b">
         <v>0</v>
       </c>
-      <c r="H20" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I20" s="18" t="b">
+      <c r="H20" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="I20" s="20" t="b">
         <v>0</v>
       </c>
-      <c r="J20" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="K20" s="9"/>
-      <c r="L20" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="M20" s="9"/>
-      <c r="N20" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="O20" s="9"/>
-      <c r="P20" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q20" s="9"/>
-      <c r="R20" s="20" t="s">
+      <c r="J20" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="K20" s="11"/>
+      <c r="L20" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="M20" s="11"/>
+      <c r="N20" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="O20" s="11"/>
+      <c r="P20" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q20" s="11"/>
+      <c r="R20" s="22" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="21" spans="2:18">
-      <c r="B21" s="13" t="s">
+      <c r="B21" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="E21" s="7" t="s">
+      <c r="E21" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="F21" s="7" t="b">
+      <c r="F21" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="G21" s="7" t="b">
+      <c r="G21" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="H21" s="19" t="s">
+      <c r="H21" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="I21" s="18" t="b">
+      <c r="I21" s="20" t="b">
         <v>0</v>
       </c>
-      <c r="J21" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="K21" s="9"/>
-      <c r="L21" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="M21" s="9"/>
-      <c r="N21" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="O21" s="9"/>
-      <c r="P21" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q21" s="9"/>
-      <c r="R21" s="20" t="s">
+      <c r="J21" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="K21" s="11"/>
+      <c r="L21" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="M21" s="11"/>
+      <c r="N21" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="O21" s="11"/>
+      <c r="P21" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q21" s="11"/>
+      <c r="R21" s="22" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="22" spans="2:18">
-      <c r="B22" s="13" t="s">
+      <c r="B22" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="E22" s="7" t="s">
+      <c r="E22" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="F22" s="7" t="b">
+      <c r="F22" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="G22" s="18" t="b">
+      <c r="G22" s="20" t="b">
         <v>0</v>
       </c>
-      <c r="H22" s="19" t="s">
+      <c r="H22" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="I22" s="18" t="b">
+      <c r="I22" s="20" t="b">
         <v>0</v>
       </c>
-      <c r="J22" s="19" t="s">
+      <c r="J22" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="K22" s="9"/>
-      <c r="L22" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="M22" s="9"/>
-      <c r="N22" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="O22" s="9"/>
-      <c r="P22" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q22" s="9"/>
-      <c r="R22" s="20" t="s">
+      <c r="K22" s="11"/>
+      <c r="L22" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="M22" s="11"/>
+      <c r="N22" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="O22" s="11"/>
+      <c r="P22" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q22" s="11"/>
+      <c r="R22" s="22" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="23" spans="2:18">
-      <c r="B23" s="13" t="s">
+      <c r="B23" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="E23" s="7" t="s">
+      <c r="E23" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="F23" s="7" t="b">
+      <c r="F23" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="G23" s="18" t="b">
+      <c r="G23" s="20" t="b">
         <v>0</v>
       </c>
-      <c r="H23" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I23" s="18" t="b">
+      <c r="H23" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="I23" s="20" t="b">
         <v>0</v>
       </c>
-      <c r="J23" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="K23" s="9"/>
-      <c r="L23" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="M23" s="9"/>
-      <c r="N23" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="O23" s="9"/>
-      <c r="P23" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q23" s="9"/>
-      <c r="R23" s="20" t="s">
+      <c r="J23" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="K23" s="11"/>
+      <c r="L23" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="M23" s="11"/>
+      <c r="N23" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="O23" s="11"/>
+      <c r="P23" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q23" s="11"/>
+      <c r="R23" s="22" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="24" spans="2:18">
-      <c r="B24" s="13" t="s">
+      <c r="B24" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="E24" s="7" t="s">
+      <c r="E24" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="F24" s="7" t="b">
+      <c r="F24" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="G24" s="18" t="s">
+      <c r="G24" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="H24" s="19" t="s">
+      <c r="H24" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="I24" s="18" t="s">
+      <c r="I24" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="J24" s="19" t="s">
+      <c r="J24" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="K24" s="9"/>
-      <c r="L24" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="M24" s="9"/>
-      <c r="N24" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="O24" s="9"/>
-      <c r="P24" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q24" s="9"/>
-      <c r="R24" s="20" t="s">
+      <c r="K24" s="11"/>
+      <c r="L24" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="M24" s="11"/>
+      <c r="N24" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="O24" s="11"/>
+      <c r="P24" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q24" s="11"/>
+      <c r="R24" s="22" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="25" spans="2:18">
-      <c r="B25" s="13" t="s">
+      <c r="B25" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="E25" s="7" t="s">
+      <c r="E25" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="F25" s="7" t="b">
+      <c r="F25" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="G25" s="7" t="b">
+      <c r="G25" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="H25" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I25" s="20" t="b">
+      <c r="H25" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="I25" s="22" t="b">
         <v>0</v>
       </c>
-      <c r="J25" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="K25" s="9"/>
-      <c r="L25" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="M25" s="9"/>
-      <c r="N25" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="O25" s="9"/>
-      <c r="P25" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q25" s="9"/>
-      <c r="R25" s="20" t="s">
+      <c r="J25" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="K25" s="11"/>
+      <c r="L25" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="M25" s="11"/>
+      <c r="N25" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="O25" s="11"/>
+      <c r="P25" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q25" s="11"/>
+      <c r="R25" s="22" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="26" s="2" customFormat="1"/>
     <row r="27" ht="28.8" customHeight="1" spans="2:18">
-      <c r="B27" s="13" t="s">
+      <c r="B27" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="C27" s="16" t="s">
+      <c r="C27" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="D27" s="16" t="s">
+      <c r="D27" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="E27" s="7" t="s">
+      <c r="E27" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="F27" s="7" t="s">
+      <c r="F27" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="G27" s="9" t="s">
+      <c r="G27" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="H27" s="19" t="s">
+      <c r="H27" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="I27" s="16" t="s">
+      <c r="I27" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="J27" s="19" t="s">
+      <c r="J27" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="K27" s="7" t="s">
+      <c r="K27" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="L27" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="M27" s="7" t="s">
+      <c r="L27" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="M27" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="N27" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="O27" s="7" t="s">
+      <c r="N27" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="O27" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="P27" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q27" s="7" t="s">
+      <c r="P27" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q27" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="R27" s="17" t="s">
+      <c r="R27" s="19" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="28" spans="2:18">
-      <c r="B28" s="13" t="s">
+      <c r="B28" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="C28" s="9"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="7" t="s">
+      <c r="C28" s="11"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="F28" s="20" t="s">
+      <c r="F28" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="G28" s="7" t="s">
+      <c r="G28" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="H28" s="19" t="s">
+      <c r="H28" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="I28" s="7" t="s">
+      <c r="I28" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="J28" s="19" t="s">
+      <c r="J28" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="K28" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="L28" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="M28" s="7" t="s">
+      <c r="L28" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="M28" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="N28" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="O28" s="7" t="s">
+      <c r="N28" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="O28" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="P28" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q28" s="7" t="s">
+      <c r="P28" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q28" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="R28" s="17" t="s">
+      <c r="R28" s="19" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="29" spans="2:18">
-      <c r="B29" s="13" t="s">
+      <c r="B29" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="C29" s="9"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="7" t="s">
+      <c r="C29" s="11"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="F29" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="G29" s="7" t="s">
+      <c r="G29" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="H29" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I29" s="7" t="s">
+      <c r="H29" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="I29" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="J29" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="K29" s="7" t="s">
+      <c r="J29" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="K29" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="L29" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="M29" s="7" t="s">
+      <c r="L29" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="M29" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="N29" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="O29" s="7" t="s">
+      <c r="N29" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="O29" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="P29" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q29" s="7" t="s">
+      <c r="P29" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q29" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="R29" s="17" t="s">
+      <c r="R29" s="19" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="30" spans="2:18">
-      <c r="B30" s="13" t="s">
+      <c r="B30" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="C30" s="9"/>
-      <c r="D30" s="16"/>
-      <c r="E30" s="7" t="s">
+      <c r="C30" s="11"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="F30" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="G30" s="7" t="s">
+      <c r="G30" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="H30" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I30" s="7" t="s">
+      <c r="H30" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="I30" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="J30" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="K30" s="7" t="s">
+      <c r="J30" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="K30" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="L30" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="M30" s="7" t="s">
+      <c r="L30" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="M30" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="N30" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="O30" s="7" t="s">
+      <c r="N30" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="O30" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="P30" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q30" s="7" t="s">
+      <c r="P30" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q30" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="R30" s="17" t="s">
+      <c r="R30" s="19" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="31" spans="2:18">
-      <c r="B31" s="13" t="s">
+      <c r="B31" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="C31" s="9"/>
-      <c r="D31" s="16"/>
-      <c r="E31" s="7" t="s">
+      <c r="C31" s="11"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="F31" s="7" t="s">
+      <c r="F31" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="G31" s="7" t="s">
+      <c r="G31" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="H31" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I31" s="7" t="s">
+      <c r="H31" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="I31" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="J31" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="K31" s="31" t="s">
+      <c r="J31" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="K31" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="L31" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="M31" s="31" t="s">
+      <c r="L31" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="M31" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="N31" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="O31" s="31" t="s">
+      <c r="N31" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="O31" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="P31" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q31" s="31" t="s">
+      <c r="P31" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q31" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="R31" s="17" t="s">
+      <c r="R31" s="19" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="32" spans="2:18">
-      <c r="B32" s="13" t="s">
+      <c r="B32" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="C32" s="9"/>
-      <c r="D32" s="16"/>
-      <c r="E32" s="21" t="s">
+      <c r="C32" s="11"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="F32" s="7" t="s">
+      <c r="F32" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="G32" s="7" t="s">
+      <c r="G32" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="H32" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I32" s="7" t="s">
+      <c r="H32" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="I32" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="J32" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="K32" s="7" t="s">
+      <c r="J32" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="K32" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="L32" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="M32" s="7" t="s">
+      <c r="L32" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="M32" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="N32" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="O32" s="7" t="s">
+      <c r="N32" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="O32" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="P32" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q32" s="7" t="s">
+      <c r="P32" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q32" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="R32" s="17" t="s">
+      <c r="R32" s="19" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="33" spans="2:18">
-      <c r="B33" s="13" t="s">
+      <c r="B33" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="C33" s="9"/>
-      <c r="D33" s="16"/>
-      <c r="E33" s="7" t="s">
+      <c r="C33" s="11"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="F33" s="7" t="s">
+      <c r="F33" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="G33" s="7" t="s">
+      <c r="G33" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="H33" s="19" t="s">
+      <c r="H33" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="I33" s="20" t="s">
+      <c r="I33" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="J33" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="K33" s="20" t="s">
+      <c r="J33" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="K33" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="L33" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="M33" s="20" t="s">
+      <c r="L33" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="M33" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="N33" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="O33" s="20" t="s">
+      <c r="N33" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="O33" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="P33" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q33" s="20" t="s">
+      <c r="P33" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q33" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="R33" s="17" t="s">
+      <c r="R33" s="19" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="34" spans="2:18">
-      <c r="B34" s="13" t="s">
+      <c r="B34" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="C34" s="9"/>
-      <c r="D34" s="16"/>
-      <c r="E34" s="7" t="s">
+      <c r="C34" s="11"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="F34" s="7" t="s">
+      <c r="F34" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="G34" s="7" t="s">
+      <c r="G34" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="H34" s="19" t="s">
+      <c r="H34" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="I34" s="20" t="s">
+      <c r="I34" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="J34" s="19" t="s">
+      <c r="J34" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="K34" s="7" t="s">
+      <c r="K34" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="L34" s="19" t="s">
+      <c r="L34" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="M34" s="7" t="s">
+      <c r="M34" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="N34" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="O34" s="7" t="s">
+      <c r="N34" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="O34" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="P34" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q34" s="7" t="s">
+      <c r="P34" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q34" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="R34" s="17" t="s">
+      <c r="R34" s="19" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="35" spans="2:18">
-      <c r="B35" s="13" t="s">
+      <c r="B35" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="C35" s="9"/>
-      <c r="D35" s="16"/>
-      <c r="E35" s="7" t="s">
+      <c r="C35" s="11"/>
+      <c r="D35" s="18"/>
+      <c r="E35" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="F35" s="7" t="s">
+      <c r="F35" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="G35" s="7" t="s">
+      <c r="G35" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="H35" s="19" t="s">
+      <c r="H35" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="I35" s="20" t="s">
+      <c r="I35" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="J35" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="K35" s="29" t="s">
+      <c r="J35" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="K35" s="31" t="s">
         <v>92</v>
       </c>
-      <c r="L35" s="19" t="s">
+      <c r="L35" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="M35" s="20" t="s">
+      <c r="M35" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="N35" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="O35" s="20" t="s">
+      <c r="N35" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="O35" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="P35" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q35" s="20" t="s">
+      <c r="P35" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q35" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="R35" s="17" t="s">
+      <c r="R35" s="19" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="36" spans="2:18">
-      <c r="B36" s="13" t="s">
+      <c r="B36" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="C36" s="9"/>
-      <c r="D36" s="16"/>
-      <c r="E36" s="22" t="s">
+      <c r="C36" s="11"/>
+      <c r="D36" s="18"/>
+      <c r="E36" s="24" t="s">
         <v>94</v>
       </c>
-      <c r="F36" s="7" t="s">
+      <c r="F36" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="G36" s="7" t="s">
+      <c r="G36" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="H36" s="19" t="s">
+      <c r="H36" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="I36" s="20" t="s">
+      <c r="I36" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="J36" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="K36" s="29" t="s">
+      <c r="J36" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="K36" s="31" t="s">
         <v>92</v>
       </c>
-      <c r="L36" s="19" t="s">
+      <c r="L36" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="M36" s="20" t="s">
+      <c r="M36" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="N36" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="O36" s="20" t="s">
+      <c r="N36" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="O36" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="P36" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q36" s="20" t="s">
+      <c r="P36" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q36" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="R36" s="17" t="s">
+      <c r="R36" s="19" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="37" s="2" customFormat="1"/>
     <row r="38" ht="43.2" spans="2:18">
-      <c r="B38" s="13" t="s">
+      <c r="B38" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="C38" s="16" t="s">
+      <c r="C38" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="D38" s="20" t="s">
+      <c r="D38" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="E38" s="23" t="s">
+      <c r="E38" s="25" t="s">
         <v>98</v>
       </c>
-      <c r="F38" s="24" t="s">
+      <c r="F38" s="26" t="s">
         <v>99</v>
       </c>
-      <c r="G38" s="24" t="s">
+      <c r="G38" s="26" t="s">
         <v>99</v>
       </c>
-      <c r="H38" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I38" s="24" t="s">
+      <c r="H38" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="I38" s="26" t="s">
         <v>99</v>
       </c>
-      <c r="J38" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="K38" s="24" t="s">
+      <c r="J38" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="K38" s="26" t="s">
         <v>99</v>
       </c>
-      <c r="L38" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="M38" s="24" t="s">
+      <c r="L38" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="M38" s="26" t="s">
         <v>99</v>
       </c>
-      <c r="N38" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="O38" s="24" t="s">
+      <c r="N38" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="O38" s="26" t="s">
         <v>99</v>
       </c>
-      <c r="P38" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q38" s="24" t="s">
+      <c r="P38" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q38" s="26" t="s">
         <v>99</v>
       </c>
-      <c r="R38" s="17" t="s">
+      <c r="R38" s="19" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="39" s="2" customFormat="1"/>
     <row r="40" ht="15" customHeight="1" spans="2:18">
-      <c r="B40" s="13" t="s">
+      <c r="B40" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="C40" s="16" t="s">
+      <c r="C40" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="D40" s="7" t="s">
+      <c r="D40" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="E40" s="23" t="s">
+      <c r="E40" s="25" t="s">
         <v>98</v>
       </c>
-      <c r="F40" s="23" t="s">
+      <c r="F40" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="G40" s="23" t="s">
+      <c r="G40" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="H40" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I40" s="23" t="s">
+      <c r="H40" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="I40" s="25" t="s">
         <v>104</v>
       </c>
-      <c r="J40" s="19" t="s">
+      <c r="J40" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="K40" s="23" t="s">
+      <c r="K40" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="L40" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="M40" s="23" t="s">
+      <c r="L40" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="M40" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="N40" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="O40" s="23" t="s">
+      <c r="N40" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="O40" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="P40" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q40" s="23" t="s">
+      <c r="P40" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q40" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="R40" s="17" t="s">
+      <c r="R40" s="19" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="41" s="2" customFormat="1"/>
     <row r="42" customHeight="1" spans="2:18">
-      <c r="B42" s="13" t="s">
+      <c r="B42" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="C42" s="16" t="s">
+      <c r="C42" s="18" t="s">
         <v>106</v>
       </c>
-      <c r="D42" s="16" t="s">
+      <c r="D42" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="E42" s="7">
+      <c r="E42" s="9">
         <v>34.354</v>
       </c>
-      <c r="F42" s="7" t="b">
+      <c r="F42" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="G42" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="H42" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="I42" s="7" t="b">
+      <c r="G42" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="H42" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="I42" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="J42" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="K42" s="29" t="s">
+      <c r="J42" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="K42" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="L42" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="M42" s="29" t="s">
+      <c r="L42" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="M42" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="N42" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="O42" s="29" t="s">
+      <c r="N42" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="O42" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="P42" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q42" s="29" t="s">
+      <c r="P42" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q42" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="R42" s="20" t="s">
+      <c r="R42" s="22" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="43" spans="2:18">
-      <c r="B43" s="13" t="s">
+      <c r="B43" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="C43" s="16"/>
-      <c r="D43" s="16"/>
-      <c r="E43" s="7">
+      <c r="C43" s="18"/>
+      <c r="D43" s="18"/>
+      <c r="E43" s="9">
         <v>1</v>
       </c>
-      <c r="F43" s="7" t="b">
+      <c r="F43" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="G43" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="H43" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="I43" s="7" t="b">
+      <c r="G43" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="H43" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="I43" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="J43" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="K43" s="29"/>
-      <c r="L43" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="M43" s="29"/>
-      <c r="N43" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="O43" s="29"/>
-      <c r="P43" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q43" s="29"/>
-      <c r="R43" s="20" t="s">
+      <c r="J43" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="K43" s="31"/>
+      <c r="L43" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="M43" s="31"/>
+      <c r="N43" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="O43" s="31"/>
+      <c r="P43" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q43" s="31"/>
+      <c r="R43" s="22" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="44" spans="2:18">
-      <c r="B44" s="13" t="s">
+      <c r="B44" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="C44" s="16"/>
-      <c r="D44" s="16"/>
-      <c r="E44" s="7">
+      <c r="C44" s="18"/>
+      <c r="D44" s="18"/>
+      <c r="E44" s="9">
         <v>1000</v>
       </c>
-      <c r="F44" s="7" t="b">
+      <c r="F44" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="G44" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="H44" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="I44" s="7" t="b">
+      <c r="G44" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="H44" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="I44" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="J44" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="K44" s="29"/>
-      <c r="L44" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="M44" s="29"/>
-      <c r="N44" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="O44" s="29"/>
-      <c r="P44" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q44" s="29"/>
-      <c r="R44" s="20" t="s">
+      <c r="J44" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="K44" s="31"/>
+      <c r="L44" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="M44" s="31"/>
+      <c r="N44" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="O44" s="31"/>
+      <c r="P44" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q44" s="31"/>
+      <c r="R44" s="22" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="45" spans="2:18">
-      <c r="B45" s="13" t="s">
+      <c r="B45" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="C45" s="16"/>
-      <c r="D45" s="16"/>
-      <c r="E45" s="7">
+      <c r="C45" s="18"/>
+      <c r="D45" s="18"/>
+      <c r="E45" s="9">
         <v>1234.321</v>
       </c>
-      <c r="F45" s="7" t="b">
+      <c r="F45" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="G45" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="H45" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="I45" s="7" t="b">
+      <c r="G45" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="H45" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="I45" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="J45" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="K45" s="29"/>
-      <c r="L45" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="M45" s="29"/>
-      <c r="N45" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="O45" s="29"/>
-      <c r="P45" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q45" s="29"/>
-      <c r="R45" s="20" t="s">
+      <c r="J45" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="K45" s="31"/>
+      <c r="L45" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="M45" s="31"/>
+      <c r="N45" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="O45" s="31"/>
+      <c r="P45" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q45" s="31"/>
+      <c r="R45" s="22" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="46" spans="2:18">
-      <c r="B46" s="13" t="s">
+      <c r="B46" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="C46" s="16"/>
-      <c r="D46" s="16"/>
-      <c r="E46" s="20" t="s">
+      <c r="C46" s="18"/>
+      <c r="D46" s="18"/>
+      <c r="E46" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="F46" s="7" t="b">
+      <c r="F46" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="G46" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="H46" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="I46" s="7" t="b">
+      <c r="G46" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="H46" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="I46" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="J46" s="19" t="s">
+      <c r="J46" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="K46" s="29"/>
-      <c r="L46" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="M46" s="29"/>
-      <c r="N46" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="O46" s="29"/>
-      <c r="P46" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q46" s="29"/>
-      <c r="R46" s="20" t="s">
+      <c r="K46" s="31"/>
+      <c r="L46" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="M46" s="31"/>
+      <c r="N46" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="O46" s="31"/>
+      <c r="P46" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q46" s="31"/>
+      <c r="R46" s="22" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="47" s="2" customFormat="1" spans="2:10">
-      <c r="B47" s="25"/>
-      <c r="E47" s="25"/>
-      <c r="F47" s="25"/>
-      <c r="G47" s="26"/>
-      <c r="H47" s="26"/>
-      <c r="I47" s="25"/>
-      <c r="J47" s="25"/>
+      <c r="B47" s="27"/>
+      <c r="E47" s="27"/>
+      <c r="F47" s="27"/>
+      <c r="G47" s="28"/>
+      <c r="H47" s="28"/>
+      <c r="I47" s="27"/>
+      <c r="J47" s="27"/>
     </row>
     <row r="48" customHeight="1" spans="2:18">
-      <c r="B48" s="13" t="s">
+      <c r="B48" s="15" t="s">
         <v>113</v>
       </c>
-      <c r="C48" s="16" t="s">
+      <c r="C48" s="18" t="s">
         <v>114</v>
       </c>
-      <c r="D48" s="16" t="s">
+      <c r="D48" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="E48" s="7">
+      <c r="E48" s="9">
         <v>0.25</v>
       </c>
-      <c r="F48" s="7" t="b">
+      <c r="F48" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="G48" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="H48" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="I48" s="7" t="b">
+      <c r="G48" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="H48" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="I48" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="J48" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="K48" s="29" t="s">
+      <c r="J48" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="K48" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="L48" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="M48" s="29" t="s">
+      <c r="L48" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="M48" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="N48" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="O48" s="29" t="s">
+      <c r="N48" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="O48" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="P48" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q48" s="29" t="s">
+      <c r="P48" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q48" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="R48" s="20" t="s">
+      <c r="R48" s="22" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="49" spans="2:18">
-      <c r="B49" s="13" t="s">
+      <c r="B49" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="C49" s="9"/>
-      <c r="D49" s="16"/>
-      <c r="E49" s="7">
+      <c r="C49" s="11"/>
+      <c r="D49" s="18"/>
+      <c r="E49" s="9">
         <v>0.5</v>
       </c>
-      <c r="F49" s="7" t="b">
+      <c r="F49" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="G49" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="H49" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="I49" s="7" t="b">
+      <c r="G49" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="H49" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="I49" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="J49" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="K49" s="7"/>
-      <c r="L49" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="M49" s="7"/>
-      <c r="N49" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="O49" s="7"/>
-      <c r="P49" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q49" s="7"/>
-      <c r="R49" s="20" t="s">
+      <c r="J49" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="K49" s="9"/>
+      <c r="L49" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="M49" s="9"/>
+      <c r="N49" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="O49" s="9"/>
+      <c r="P49" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q49" s="9"/>
+      <c r="R49" s="22" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="50" spans="2:18">
-      <c r="B50" s="13" t="s">
+      <c r="B50" s="15" t="s">
         <v>116</v>
       </c>
-      <c r="C50" s="9"/>
-      <c r="D50" s="16"/>
-      <c r="E50" s="7">
+      <c r="C50" s="11"/>
+      <c r="D50" s="18"/>
+      <c r="E50" s="9">
         <v>1</v>
       </c>
-      <c r="F50" s="7" t="b">
+      <c r="F50" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="G50" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="H50" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="I50" s="7" t="b">
+      <c r="G50" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="H50" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="I50" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="J50" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="K50" s="7"/>
-      <c r="L50" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="M50" s="7"/>
-      <c r="N50" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="O50" s="7"/>
-      <c r="P50" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q50" s="7"/>
-      <c r="R50" s="20" t="s">
+      <c r="J50" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="K50" s="9"/>
+      <c r="L50" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="M50" s="9"/>
+      <c r="N50" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="O50" s="9"/>
+      <c r="P50" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q50" s="9"/>
+      <c r="R50" s="22" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="51" spans="2:18">
-      <c r="B51" s="13" t="s">
+      <c r="B51" s="15" t="s">
         <v>117</v>
       </c>
-      <c r="C51" s="9"/>
-      <c r="D51" s="16"/>
-      <c r="E51" s="7">
+      <c r="C51" s="11"/>
+      <c r="D51" s="18"/>
+      <c r="E51" s="9">
         <v>0.75</v>
       </c>
-      <c r="F51" s="7" t="b">
+      <c r="F51" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="G51" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="H51" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="I51" s="7" t="b">
+      <c r="G51" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="H51" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="I51" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="J51" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="K51" s="7"/>
-      <c r="L51" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="M51" s="7"/>
-      <c r="N51" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="O51" s="7"/>
-      <c r="P51" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q51" s="7"/>
-      <c r="R51" s="20" t="s">
+      <c r="J51" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="K51" s="9"/>
+      <c r="L51" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="M51" s="9"/>
+      <c r="N51" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="O51" s="9"/>
+      <c r="P51" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q51" s="9"/>
+      <c r="R51" s="22" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="52" spans="2:18">
-      <c r="B52" s="13" t="s">
+      <c r="B52" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="C52" s="9"/>
-      <c r="D52" s="16"/>
-      <c r="E52" s="20" t="s">
+      <c r="C52" s="11"/>
+      <c r="D52" s="18"/>
+      <c r="E52" s="22" t="s">
         <v>119</v>
       </c>
-      <c r="F52" s="7" t="b">
+      <c r="F52" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="G52" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="H52" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="I52" s="7" t="b">
+      <c r="G52" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="H52" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="I52" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="J52" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="K52" s="7"/>
-      <c r="L52" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="M52" s="7"/>
-      <c r="N52" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="O52" s="7"/>
-      <c r="P52" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q52" s="7"/>
-      <c r="R52" s="20" t="s">
+      <c r="J52" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="K52" s="9"/>
+      <c r="L52" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="M52" s="9"/>
+      <c r="N52" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="O52" s="9"/>
+      <c r="P52" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q52" s="9"/>
+      <c r="R52" s="22" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="53" s="2" customFormat="1"/>
     <row r="54" customHeight="1" spans="2:18">
-      <c r="B54" s="13" t="s">
+      <c r="B54" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="C54" s="16" t="s">
+      <c r="C54" s="18" t="s">
         <v>121</v>
       </c>
-      <c r="D54" s="16" t="s">
+      <c r="D54" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="E54" s="20" t="s">
+      <c r="E54" s="22" t="s">
         <v>122</v>
       </c>
-      <c r="F54" s="7" t="b">
+      <c r="F54" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="G54" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="H54" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="I54" s="7" t="b">
+      <c r="G54" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="H54" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="I54" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="J54" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="K54" s="30" t="s">
+      <c r="J54" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="K54" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="L54" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="M54" s="30" t="s">
+      <c r="L54" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="M54" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="N54" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="O54" s="30" t="s">
+      <c r="N54" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="O54" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="P54" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q54" s="30" t="s">
+      <c r="P54" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q54" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="R54" s="20" t="s">
+      <c r="R54" s="22" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="55" spans="2:18">
-      <c r="B55" s="13" t="s">
+      <c r="B55" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="C55" s="16"/>
-      <c r="D55" s="16"/>
-      <c r="E55" s="20" t="s">
+      <c r="C55" s="18"/>
+      <c r="D55" s="18"/>
+      <c r="E55" s="22" t="s">
         <v>124</v>
       </c>
-      <c r="F55" s="7" t="b">
+      <c r="F55" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="G55" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="H55" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="I55" s="7" t="b">
+      <c r="G55" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="H55" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="I55" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="J55" s="19" t="s">
+      <c r="J55" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="K55" s="30"/>
-      <c r="L55" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="M55" s="30"/>
-      <c r="N55" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="O55" s="30"/>
-      <c r="P55" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q55" s="30"/>
-      <c r="R55" s="20" t="s">
+      <c r="K55" s="32"/>
+      <c r="L55" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="M55" s="32"/>
+      <c r="N55" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="O55" s="32"/>
+      <c r="P55" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q55" s="32"/>
+      <c r="R55" s="22" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="56" spans="2:18">
-      <c r="B56" s="13" t="s">
+      <c r="B56" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="C56" s="16"/>
-      <c r="D56" s="16"/>
-      <c r="E56" s="20" t="s">
+      <c r="C56" s="18"/>
+      <c r="D56" s="18"/>
+      <c r="E56" s="22" t="s">
         <v>126</v>
       </c>
-      <c r="F56" s="7" t="b">
+      <c r="F56" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="G56" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="H56" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="I56" s="7" t="b">
+      <c r="G56" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="H56" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="I56" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="J56" s="19" t="s">
+      <c r="J56" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="K56" s="30"/>
-      <c r="L56" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="M56" s="30"/>
-      <c r="N56" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="O56" s="30"/>
-      <c r="P56" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q56" s="30"/>
-      <c r="R56" s="20" t="s">
+      <c r="K56" s="32"/>
+      <c r="L56" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="M56" s="32"/>
+      <c r="N56" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="O56" s="32"/>
+      <c r="P56" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q56" s="32"/>
+      <c r="R56" s="22" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="57" spans="2:18">
-      <c r="B57" s="13" t="s">
+      <c r="B57" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="C57" s="16"/>
-      <c r="D57" s="16"/>
-      <c r="E57" s="20" t="s">
+      <c r="C57" s="18"/>
+      <c r="D57" s="18"/>
+      <c r="E57" s="22" t="s">
         <v>128</v>
       </c>
-      <c r="F57" s="7" t="b">
+      <c r="F57" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="G57" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="H57" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="I57" s="20" t="s">
+      <c r="G57" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="H57" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="I57" s="22" t="s">
         <v>129</v>
       </c>
-      <c r="J57" s="32" t="s">
+      <c r="J57" s="34" t="s">
         <v>129</v>
       </c>
-      <c r="K57" s="30"/>
-      <c r="L57" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="M57" s="30"/>
-      <c r="N57" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="O57" s="30"/>
-      <c r="P57" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q57" s="30"/>
-      <c r="R57" s="20" t="s">
+      <c r="K57" s="32"/>
+      <c r="L57" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="M57" s="32"/>
+      <c r="N57" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="O57" s="32"/>
+      <c r="P57" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q57" s="32"/>
+      <c r="R57" s="22" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="58" spans="2:18">
-      <c r="B58" s="13" t="s">
+      <c r="B58" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="C58" s="16"/>
-      <c r="D58" s="16"/>
-      <c r="E58" s="20" t="s">
+      <c r="C58" s="18"/>
+      <c r="D58" s="18"/>
+      <c r="E58" s="22" t="s">
         <v>131</v>
       </c>
-      <c r="F58" s="7" t="b">
+      <c r="F58" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="G58" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="H58" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="I58" s="7" t="b">
+      <c r="G58" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="H58" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="I58" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="J58" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="K58" s="30"/>
-      <c r="L58" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="M58" s="30"/>
-      <c r="N58" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="O58" s="30"/>
-      <c r="P58" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q58" s="30"/>
-      <c r="R58" s="20" t="s">
+      <c r="J58" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="K58" s="32"/>
+      <c r="L58" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="M58" s="32"/>
+      <c r="N58" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="O58" s="32"/>
+      <c r="P58" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q58" s="32"/>
+      <c r="R58" s="22" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="59" spans="2:18">
-      <c r="B59" s="13" t="s">
+      <c r="B59" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="C59" s="16"/>
-      <c r="D59" s="16"/>
-      <c r="E59" s="20" t="s">
+      <c r="C59" s="18"/>
+      <c r="D59" s="18"/>
+      <c r="E59" s="22" t="s">
         <v>133</v>
       </c>
-      <c r="F59" s="7" t="b">
+      <c r="F59" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="G59" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="H59" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="I59" s="7" t="b">
+      <c r="G59" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="H59" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="I59" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="J59" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="K59" s="30"/>
-      <c r="L59" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="M59" s="30"/>
-      <c r="N59" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="O59" s="30"/>
-      <c r="P59" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q59" s="30"/>
-      <c r="R59" s="20" t="s">
+      <c r="J59" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="K59" s="32"/>
+      <c r="L59" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="M59" s="32"/>
+      <c r="N59" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="O59" s="32"/>
+      <c r="P59" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q59" s="32"/>
+      <c r="R59" s="22" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="60" s="3" customFormat="1"/>
     <row r="61" s="1" customFormat="1" customHeight="1" spans="2:18">
-      <c r="B61" s="9"/>
-      <c r="C61" s="12" t="s">
+      <c r="B61" s="11"/>
+      <c r="C61" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="D61" s="16" t="s">
+      <c r="D61" s="18" t="s">
         <v>135</v>
       </c>
-      <c r="E61" s="16" t="s">
+      <c r="E61" s="18" t="s">
         <v>136</v>
       </c>
-      <c r="F61" s="16" t="s">
+      <c r="F61" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="G61" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="H61" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="I61" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="J61" s="20" t="s">
+      <c r="G61" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="H61" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="I61" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="J61" s="22" t="s">
         <v>20</v>
       </c>
       <c r="K61" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="L61" s="17" t="s">
+      <c r="L61" s="19" t="s">
         <v>18</v>
       </c>
       <c r="M61" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="N61" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="O61" s="9" t="s">
+      <c r="N61" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="O61" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="P61" s="17" t="s">
+      <c r="P61" s="19" t="s">
         <v>140</v>
       </c>
-      <c r="Q61" s="9" t="s">
+      <c r="Q61" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="R61" s="17" t="s">
+      <c r="R61" s="19" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="62" s="1" customFormat="1" spans="2:18">
-      <c r="B62" s="9"/>
-      <c r="C62" s="16"/>
-      <c r="D62" s="16"/>
-      <c r="E62" s="16" t="s">
+      <c r="B62" s="11"/>
+      <c r="C62" s="18"/>
+      <c r="D62" s="18"/>
+      <c r="E62" s="18" t="s">
         <v>142</v>
       </c>
-      <c r="F62" s="16" t="s">
+      <c r="F62" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="G62" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="H62" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="I62" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="J62" s="20" t="s">
+      <c r="G62" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="H62" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="I62" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="J62" s="22" t="s">
         <v>20</v>
       </c>
       <c r="K62" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="L62" s="17" t="s">
+      <c r="L62" s="19" t="s">
         <v>18</v>
       </c>
       <c r="M62" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="N62" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="O62" s="9" t="s">
+      <c r="N62" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="O62" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="P62" s="17" t="s">
+      <c r="P62" s="19" t="s">
         <v>140</v>
       </c>
-      <c r="Q62" s="9" t="s">
+      <c r="Q62" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="R62" s="17" t="s">
+      <c r="R62" s="19" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="63" s="1" customFormat="1" spans="2:18">
-      <c r="B63" s="9"/>
-      <c r="C63" s="16"/>
-      <c r="D63" s="16"/>
-      <c r="E63" s="16" t="s">
+      <c r="B63" s="11"/>
+      <c r="C63" s="18"/>
+      <c r="D63" s="18"/>
+      <c r="E63" s="18" t="s">
         <v>145</v>
       </c>
-      <c r="F63" s="16" t="s">
+      <c r="F63" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="G63" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="H63" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="I63" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="J63" s="20" t="s">
+      <c r="G63" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="H63" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="I63" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="J63" s="22" t="s">
         <v>20</v>
       </c>
       <c r="K63" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="L63" s="17" t="s">
+      <c r="L63" s="19" t="s">
         <v>18</v>
       </c>
       <c r="M63" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="N63" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="O63" s="9" t="s">
+      <c r="N63" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="O63" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="P63" s="17" t="s">
+      <c r="P63" s="19" t="s">
         <v>140</v>
       </c>
-      <c r="Q63" s="9" t="s">
+      <c r="Q63" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="R63" s="17" t="s">
+      <c r="R63" s="19" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="64" s="1" customFormat="1" ht="43.2" spans="2:18">
-      <c r="B64" s="9"/>
-      <c r="C64" s="16"/>
-      <c r="D64" s="16"/>
-      <c r="E64" s="16" t="s">
+      <c r="B64" s="11"/>
+      <c r="C64" s="18"/>
+      <c r="D64" s="18"/>
+      <c r="E64" s="18" t="s">
         <v>147</v>
       </c>
-      <c r="F64" s="16" t="s">
+      <c r="F64" s="18" t="s">
         <v>148</v>
       </c>
-      <c r="G64" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="H64" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="I64" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="J64" s="20" t="s">
+      <c r="G64" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="H64" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="I64" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="J64" s="22" t="s">
         <v>20</v>
       </c>
       <c r="K64" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="L64" s="19" t="s">
+      <c r="L64" s="21" t="s">
         <v>39</v>
       </c>
       <c r="M64" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="N64" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="O64" s="9" t="s">
+      <c r="N64" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="O64" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="P64" s="17" t="s">
+      <c r="P64" s="19" t="s">
         <v>140</v>
       </c>
-      <c r="Q64" s="9" t="s">
+      <c r="Q64" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="R64" s="17" t="s">
+      <c r="R64" s="19" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="65" s="1" customFormat="1" ht="28.05" customHeight="1" spans="2:18">
-      <c r="B65" s="9"/>
-      <c r="C65" s="16"/>
-      <c r="D65" s="16"/>
-      <c r="E65" s="16" t="s">
+      <c r="B65" s="11"/>
+      <c r="C65" s="18"/>
+      <c r="D65" s="18"/>
+      <c r="E65" s="18" t="s">
         <v>151</v>
       </c>
-      <c r="F65" s="16" t="s">
+      <c r="F65" s="18" t="s">
         <v>152</v>
       </c>
-      <c r="G65" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="H65" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="I65" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="J65" s="20" t="s">
+      <c r="G65" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="H65" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="I65" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="J65" s="22" t="s">
         <v>20</v>
       </c>
       <c r="K65" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="L65" s="19" t="s">
+      <c r="L65" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="M65" s="36" t="s">
+      <c r="M65" s="45" t="s">
         <v>154</v>
       </c>
-      <c r="N65" s="19" t="s">
+      <c r="N65" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="O65" s="9" t="s">
+      <c r="O65" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="P65" s="17" t="s">
+      <c r="P65" s="19" t="s">
         <v>140</v>
       </c>
-      <c r="Q65" s="9" t="s">
+      <c r="Q65" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="R65" s="17" t="s">
+      <c r="R65" s="19" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="66" s="1" customFormat="1" ht="28.05" customHeight="1" spans="2:18">
-      <c r="B66" s="9"/>
-      <c r="C66" s="16"/>
-      <c r="D66" s="16"/>
-      <c r="E66" s="16" t="s">
+      <c r="B66" s="11"/>
+      <c r="C66" s="18"/>
+      <c r="D66" s="18"/>
+      <c r="E66" s="18" t="s">
         <v>155</v>
       </c>
-      <c r="F66" s="16" t="s">
+      <c r="F66" s="18" t="s">
         <v>152</v>
       </c>
-      <c r="G66" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="H66" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="I66" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="J66" s="20" t="s">
+      <c r="G66" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="H66" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="I66" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="J66" s="22" t="s">
         <v>20</v>
       </c>
       <c r="K66" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="L66" s="19" t="s">
+      <c r="L66" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="M66" s="36" t="s">
+      <c r="M66" s="45" t="s">
         <v>154</v>
       </c>
-      <c r="N66" s="19" t="s">
+      <c r="N66" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="O66" s="9" t="s">
+      <c r="O66" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="P66" s="17" t="s">
+      <c r="P66" s="19" t="s">
         <v>140</v>
       </c>
-      <c r="Q66" s="9" t="s">
+      <c r="Q66" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="R66" s="17" t="s">
+      <c r="R66" s="19" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="67" s="1" customFormat="1" ht="28.8" spans="2:18">
-      <c r="B67" s="9"/>
-      <c r="C67" s="16"/>
-      <c r="D67" s="16"/>
-      <c r="E67" s="16" t="s">
+      <c r="B67" s="11"/>
+      <c r="C67" s="18"/>
+      <c r="D67" s="18"/>
+      <c r="E67" s="18" t="s">
         <v>156</v>
       </c>
-      <c r="F67" s="16" t="s">
+      <c r="F67" s="18" t="s">
         <v>157</v>
       </c>
-      <c r="G67" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="H67" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="I67" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="J67" s="20" t="s">
+      <c r="G67" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="H67" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="I67" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="J67" s="22" t="s">
         <v>20</v>
       </c>
       <c r="K67" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="L67" s="19" t="s">
+      <c r="L67" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="M67" s="36" t="s">
+      <c r="M67" s="45" t="s">
         <v>159</v>
       </c>
-      <c r="N67" s="19" t="s">
+      <c r="N67" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="O67" s="9" t="s">
+      <c r="O67" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="P67" s="17" t="s">
+      <c r="P67" s="19" t="s">
         <v>140</v>
       </c>
-      <c r="Q67" s="9" t="s">
+      <c r="Q67" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="R67" s="17" t="s">
+      <c r="R67" s="19" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="68" s="1" customFormat="1" spans="2:18">
-      <c r="B68" s="9"/>
-      <c r="C68" s="16"/>
-      <c r="D68" s="16"/>
-      <c r="E68" s="16" t="s">
+      <c r="B68" s="11"/>
+      <c r="C68" s="18"/>
+      <c r="D68" s="18"/>
+      <c r="E68" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="F68" s="16" t="s">
+      <c r="F68" s="18" t="s">
         <v>103</v>
       </c>
-      <c r="G68" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="H68" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="I68" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="J68" s="20" t="s">
+      <c r="G68" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="H68" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="I68" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="J68" s="22" t="s">
         <v>20</v>
       </c>
       <c r="K68" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="L68" s="17" t="s">
+      <c r="L68" s="19" t="s">
         <v>18</v>
       </c>
       <c r="M68" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="N68" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="O68" s="9" t="s">
+      <c r="N68" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="O68" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="P68" s="17" t="s">
+      <c r="P68" s="19" t="s">
         <v>140</v>
       </c>
-      <c r="Q68" s="9" t="s">
+      <c r="Q68" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="R68" s="17" t="s">
+      <c r="R68" s="19" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="69" s="4" customFormat="1" spans="2:8">
-      <c r="B69" s="33"/>
-      <c r="D69" s="34"/>
-      <c r="E69" s="33"/>
-      <c r="F69" s="33"/>
-      <c r="G69" s="33"/>
-      <c r="H69" s="33"/>
+      <c r="B69" s="35"/>
+      <c r="D69" s="36"/>
+      <c r="E69" s="35"/>
+      <c r="F69" s="35"/>
+      <c r="G69" s="35"/>
+      <c r="H69" s="35"/>
     </row>
     <row r="70" customFormat="1" spans="1:18">
-      <c r="A70" s="6"/>
-      <c r="B70" s="7"/>
-      <c r="C70" s="12" t="s">
+      <c r="A70" s="8"/>
+      <c r="B70" s="9"/>
+      <c r="C70" s="14" t="s">
         <v>162</v>
       </c>
-      <c r="D70" s="16" t="s">
-        <v>135</v>
-      </c>
-      <c r="E70" s="16" t="s">
+      <c r="D70" s="18" t="s">
         <v>163</v>
       </c>
-      <c r="F70" s="9" t="s">
+      <c r="E70" s="18" t="s">
         <v>164</v>
       </c>
-      <c r="G70" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="H70" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="I70" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="J70" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="K70" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="L70" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="M70" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="N70" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="O70" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="P70" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q70" s="9" t="s">
+      <c r="F70" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="G70" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="H70" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="I70" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="J70" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="K70" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="L70" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="M70" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="N70" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="O70" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="P70" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q70" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="R70" s="17" t="s">
+      <c r="R70" s="19" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="71" customFormat="1" spans="1:18">
-      <c r="A71" s="6"/>
-      <c r="B71" s="7"/>
-      <c r="C71" s="12"/>
-      <c r="D71" s="16"/>
-      <c r="E71" s="16" t="s">
+      <c r="A71" s="8"/>
+      <c r="B71" s="9"/>
+      <c r="C71" s="14"/>
+      <c r="D71" s="18"/>
+      <c r="E71" s="18" t="s">
+        <v>166</v>
+      </c>
+      <c r="F71" s="18" t="s">
         <v>165</v>
       </c>
-      <c r="F71" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="G71" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="H71" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="I71" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="J71" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="K71" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="L71" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="M71" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="N71" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="O71" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="P71" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q71" s="9" t="s">
+      <c r="G71" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="H71" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="I71" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="J71" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="K71" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="L71" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="M71" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="N71" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="O71" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="P71" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q71" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="R71" s="17" t="s">
+      <c r="R71" s="19" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="72" customFormat="1" spans="1:18">
-      <c r="A72" s="6"/>
-      <c r="B72" s="7"/>
-      <c r="C72" s="12"/>
-      <c r="D72" s="16"/>
-      <c r="E72" s="16" t="s">
-        <v>166</v>
-      </c>
-      <c r="F72" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="G72" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="H72" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="I72" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="J72" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="K72" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="L72" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="M72" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="N72" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="O72" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="P72" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q72" s="9" t="s">
+      <c r="A72" s="8"/>
+      <c r="B72" s="9"/>
+      <c r="C72" s="14"/>
+      <c r="D72" s="18"/>
+      <c r="E72" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="F72" s="18" t="s">
+        <v>168</v>
+      </c>
+      <c r="G72" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="H72" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="I72" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="J72" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="K72" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="L72" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="M72" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="N72" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="O72" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="P72" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q72" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="R72" s="17" t="s">
+      <c r="R72" s="19" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="73" customFormat="1" spans="1:18">
-      <c r="A73" s="6"/>
-      <c r="B73" s="7"/>
-      <c r="C73" s="12"/>
-      <c r="D73" s="16"/>
-      <c r="E73" s="16" t="s">
-        <v>167</v>
-      </c>
-      <c r="F73" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="G73" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="H73" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="I73" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="J73" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="K73" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="L73" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="M73" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="N73" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="O73" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="P73" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q73" s="9" t="s">
+      <c r="A73" s="8"/>
+      <c r="B73" s="9"/>
+      <c r="C73" s="14"/>
+      <c r="D73" s="18"/>
+      <c r="E73" s="18" t="s">
+        <v>169</v>
+      </c>
+      <c r="F73" s="18" t="s">
+        <v>168</v>
+      </c>
+      <c r="G73" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="H73" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="I73" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="J73" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="K73" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="L73" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="M73" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="N73" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="O73" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="P73" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q73" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="R73" s="17" t="s">
+      <c r="R73" s="19" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="74" customFormat="1" spans="1:18">
-      <c r="A74" s="6"/>
-      <c r="B74" s="7"/>
-      <c r="C74" s="12"/>
-      <c r="D74" s="16"/>
-      <c r="E74" s="16" t="s">
+      <c r="A74" s="8"/>
+      <c r="B74" s="9"/>
+      <c r="C74" s="14"/>
+      <c r="D74" s="18"/>
+      <c r="E74" s="18" t="s">
+        <v>170</v>
+      </c>
+      <c r="F74" s="18" t="s">
         <v>168</v>
       </c>
-      <c r="F74" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="G74" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="H74" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="I74" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="J74" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="K74" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="L74" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="M74" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="N74" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="O74" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="P74" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q74" s="9" t="s">
+      <c r="G74" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="H74" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="I74" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="J74" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="K74" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="L74" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="M74" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="N74" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="O74" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="P74" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q74" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="R74" s="17" t="s">
+      <c r="R74" s="19" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="75" s="5" customFormat="1"/>
     <row r="76" customHeight="1" spans="3:18">
-      <c r="C76" s="12" t="s">
+      <c r="C76" s="14" t="s">
+        <v>171</v>
+      </c>
+      <c r="D76" s="18" t="s">
+        <v>172</v>
+      </c>
+      <c r="E76" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="F76" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="G76" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="H76" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="I76" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="J76" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="K76" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="L76" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="M76" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="N76" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="O76" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="P76" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q76" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="R76" s="19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="77" spans="3:18">
+      <c r="C77" s="18"/>
+      <c r="D77" s="18"/>
+      <c r="E77" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="F77" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="G77" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="H77" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="I77" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="J77" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="K77" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="L77" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="M77" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="N77" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="O77" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="P77" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q77" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="R77" s="19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="78" spans="3:18">
+      <c r="C78" s="18"/>
+      <c r="D78" s="18"/>
+      <c r="E78" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="F78" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="G78" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="H78" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="I78" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="J78" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="K78" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="L78" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="M78" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="N78" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="O78" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="P78" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q78" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="R78" s="19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="79" ht="57.6" spans="3:18">
+      <c r="C79" s="18"/>
+      <c r="D79" s="18"/>
+      <c r="E79" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="F79" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="G79" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="H79" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="I79" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="J79" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="K79" s="18" t="s">
+        <v>173</v>
+      </c>
+      <c r="L79" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="M79" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="N79" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="O79" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="P79" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q79" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="R79" s="19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="80" ht="28.8" spans="3:18">
+      <c r="C80" s="18"/>
+      <c r="D80" s="18"/>
+      <c r="E80" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="F80" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="G80" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="H80" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="I80" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="J80" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="K80" s="18" t="s">
+        <v>174</v>
+      </c>
+      <c r="L80" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="M80" s="18" t="s">
+        <v>175</v>
+      </c>
+      <c r="N80" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="O80" s="18" t="s">
+        <v>176</v>
+      </c>
+      <c r="P80" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q80" s="18" t="s">
+        <v>176</v>
+      </c>
+      <c r="R80" s="19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="81" ht="28.8" spans="3:18">
+      <c r="C81" s="18"/>
+      <c r="D81" s="18"/>
+      <c r="E81" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="F81" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="G81" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="H81" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="I81" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="J81" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="K81" s="18" t="s">
+        <v>175</v>
+      </c>
+      <c r="L81" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="M81" s="18" t="s">
+        <v>175</v>
+      </c>
+      <c r="N81" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="O81" s="18" t="s">
+        <v>177</v>
+      </c>
+      <c r="P81" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q81" s="18" t="s">
+        <v>177</v>
+      </c>
+      <c r="R81" s="19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="82" ht="43.2" spans="3:18">
+      <c r="C82" s="18"/>
+      <c r="D82" s="18"/>
+      <c r="E82" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="F82" s="18" t="s">
+        <v>178</v>
+      </c>
+      <c r="G82" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="H82" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="I82" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="J82" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="K82" s="18" t="s">
+        <v>174</v>
+      </c>
+      <c r="L82" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="M82" s="18" t="s">
+        <v>179</v>
+      </c>
+      <c r="N82" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="O82" s="18" t="s">
+        <v>180</v>
+      </c>
+      <c r="P82" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q82" s="18" t="s">
+        <v>180</v>
+      </c>
+      <c r="R82" s="19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="83" spans="3:18">
+      <c r="C83" s="18"/>
+      <c r="D83" s="18"/>
+      <c r="E83" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="F83" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="G83" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="H83" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="I83" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="J83" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="K83" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="L83" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="M83" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="N83" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="O83" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="P83" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q83" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="R83" s="19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="84" s="6" customFormat="1" spans="2:8">
+      <c r="B84" s="37"/>
+      <c r="D84" s="38"/>
+      <c r="E84" s="37"/>
+      <c r="F84" s="37"/>
+      <c r="G84" s="37"/>
+      <c r="H84" s="37"/>
+    </row>
+    <row r="85" spans="3:18">
+      <c r="C85" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="D85" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="E85" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="F85" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="G85" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="H85" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="I85" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="J85" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="K85" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="L85" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="M85" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="N85" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="O85" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="P85" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q85" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="R85" s="19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18">
+      <c r="C86" s="14"/>
+      <c r="D86" s="18"/>
+      <c r="E86" s="18" t="s">
+        <v>166</v>
+      </c>
+      <c r="F86" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="G86" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="H86" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="I86" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="J86" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="K86" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="L86" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="M86" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="N86" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="O86" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="P86" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q86" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="R86" s="19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18">
+      <c r="C87" s="14"/>
+      <c r="D87" s="18"/>
+      <c r="E87" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="F87" s="18" t="s">
+        <v>168</v>
+      </c>
+      <c r="G87" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="H87" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="I87" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="J87" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="K87" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="L87" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="M87" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="N87" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="O87" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="P87" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q87" s="18" t="s">
+        <v>168</v>
+      </c>
+      <c r="R87" s="19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18">
+      <c r="C88" s="14"/>
+      <c r="D88" s="18"/>
+      <c r="E88" s="18" t="s">
         <v>169</v>
       </c>
-      <c r="D76" s="16" t="s">
+      <c r="F88" s="18" t="s">
+        <v>168</v>
+      </c>
+      <c r="G88" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="H88" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="I88" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="J88" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="K88" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="L88" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="M88" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="N88" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="O88" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="P88" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q88" s="18" t="s">
+        <v>168</v>
+      </c>
+      <c r="R88" s="19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18">
+      <c r="C89" s="14"/>
+      <c r="D89" s="18"/>
+      <c r="E89" s="18" t="s">
         <v>170</v>
       </c>
-      <c r="E76" s="16" t="s">
-        <v>136</v>
-      </c>
-      <c r="F76" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="G76" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="H76" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="I76" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="J76" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="K76" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="L76" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="M76" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="N76" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="O76" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="P76" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q76" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="R76" s="17" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="77" spans="3:18">
-      <c r="C77" s="16"/>
-      <c r="D77" s="16"/>
-      <c r="E77" s="16" t="s">
-        <v>142</v>
-      </c>
-      <c r="F77" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="G77" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="H77" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="I77" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="J77" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="K77" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="L77" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="M77" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="N77" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="O77" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="P77" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q77" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="R77" s="17" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="78" spans="3:18">
-      <c r="C78" s="16"/>
-      <c r="D78" s="16"/>
-      <c r="E78" s="16" t="s">
-        <v>145</v>
-      </c>
-      <c r="F78" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="G78" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="H78" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="I78" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="J78" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="K78" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="L78" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="M78" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="N78" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="O78" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="P78" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q78" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="R78" s="17" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="79" ht="57.6" spans="3:18">
-      <c r="C79" s="16"/>
-      <c r="D79" s="16"/>
-      <c r="E79" s="16" t="s">
-        <v>147</v>
-      </c>
-      <c r="F79" s="16" t="s">
-        <v>148</v>
-      </c>
-      <c r="G79" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="H79" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="I79" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="J79" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="K79" s="16" t="s">
-        <v>171</v>
-      </c>
-      <c r="L79" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="M79" s="16" t="s">
-        <v>148</v>
-      </c>
-      <c r="N79" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="O79" s="16" t="s">
-        <v>148</v>
-      </c>
-      <c r="P79" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q79" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="R79" s="17" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="80" ht="28.8" spans="3:18">
-      <c r="C80" s="16"/>
-      <c r="D80" s="16"/>
-      <c r="E80" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="F80" s="16" t="s">
-        <v>152</v>
-      </c>
-      <c r="G80" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="H80" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="I80" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="J80" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="K80" s="16" t="s">
-        <v>172</v>
-      </c>
-      <c r="L80" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="M80" s="16" t="s">
-        <v>173</v>
-      </c>
-      <c r="N80" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="O80" s="16" t="s">
-        <v>174</v>
-      </c>
-      <c r="P80" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q80" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="R80" s="17" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="81" ht="28.8" spans="3:18">
-      <c r="C81" s="16"/>
-      <c r="D81" s="16"/>
-      <c r="E81" s="16" t="s">
-        <v>155</v>
-      </c>
-      <c r="F81" s="16" t="s">
-        <v>152</v>
-      </c>
-      <c r="G81" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="H81" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="I81" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="J81" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="K81" s="16" t="s">
-        <v>173</v>
-      </c>
-      <c r="L81" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="M81" s="16" t="s">
-        <v>173</v>
-      </c>
-      <c r="N81" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="O81" s="16" t="s">
-        <v>175</v>
-      </c>
-      <c r="P81" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q81" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="R81" s="17" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="82" ht="43.2" spans="3:18">
-      <c r="C82" s="16"/>
-      <c r="D82" s="16"/>
-      <c r="E82" s="16" t="s">
-        <v>156</v>
-      </c>
-      <c r="F82" s="16" t="s">
-        <v>176</v>
-      </c>
-      <c r="G82" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="H82" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="I82" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="J82" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="K82" s="16" t="s">
-        <v>172</v>
-      </c>
-      <c r="L82" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="M82" s="16" t="s">
-        <v>177</v>
-      </c>
-      <c r="N82" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="O82" s="16" t="s">
-        <v>176</v>
-      </c>
-      <c r="P82" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q82" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="R82" s="17" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="83" spans="3:18">
-      <c r="C83" s="16"/>
-      <c r="D83" s="16"/>
-      <c r="E83" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="F83" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="G83" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="H83" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="I83" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="J83" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="K83" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="L83" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="M83" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="N83" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="O83" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="P83" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q83" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="R83" s="17" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="84" s="4" customFormat="1" spans="2:8">
-      <c r="B84" s="33"/>
-      <c r="C84" s="4"/>
-      <c r="D84" s="34"/>
-      <c r="E84" s="33"/>
-      <c r="F84" s="33"/>
-      <c r="G84" s="33"/>
-      <c r="H84" s="33"/>
-    </row>
-    <row r="85" spans="3:18">
-      <c r="C85" s="12" t="s">
-        <v>178</v>
-      </c>
-      <c r="D85" s="16" t="s">
-        <v>170</v>
-      </c>
-      <c r="E85" s="16" t="s">
-        <v>163</v>
-      </c>
-      <c r="F85" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="G85" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="H85" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="I85" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="J85" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="K85" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="L85" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="M85" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="N85" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="O85" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="P85" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q85" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="R85" s="17" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="86" spans="3:18">
-      <c r="C86" s="12"/>
-      <c r="D86" s="16"/>
-      <c r="E86" s="16" t="s">
-        <v>165</v>
-      </c>
-      <c r="F86" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="G86" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="H86" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="I86" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="J86" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="K86" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="L86" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="M86" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="N86" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="O86" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="P86" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q86" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="R86" s="17" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="87" spans="3:18">
-      <c r="C87" s="12"/>
-      <c r="D87" s="16"/>
-      <c r="E87" s="16" t="s">
-        <v>166</v>
-      </c>
-      <c r="F87" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="G87" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="H87" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="I87" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="J87" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="K87" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="L87" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="M87" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="N87" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="O87" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="P87" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q87" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="R87" s="17" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="88" spans="3:18">
-      <c r="C88" s="12"/>
-      <c r="D88" s="16"/>
-      <c r="E88" s="16" t="s">
-        <v>167</v>
-      </c>
-      <c r="F88" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="G88" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="H88" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="I88" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="J88" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="K88" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="L88" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="M88" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="N88" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="O88" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="P88" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q88" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="R88" s="17" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="89" spans="3:18">
-      <c r="C89" s="12"/>
-      <c r="D89" s="16"/>
-      <c r="E89" s="16" t="s">
-        <v>168</v>
-      </c>
-      <c r="F89" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="G89" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="H89" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="I89" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="J89" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="K89" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="L89" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="M89" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="N89" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="O89" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="P89" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q89" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="R89" s="17" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="90" spans="3:16">
-      <c r="C90" s="35"/>
-      <c r="D90" s="36"/>
-      <c r="E90" s="16"/>
-      <c r="F90" s="16"/>
-      <c r="G90" s="20"/>
-      <c r="H90" s="20"/>
-      <c r="I90" s="20"/>
-      <c r="J90" s="20"/>
-      <c r="K90" s="16"/>
-      <c r="L90" s="19"/>
-      <c r="M90" s="16"/>
-      <c r="N90" s="19"/>
-      <c r="O90" s="16"/>
-      <c r="P90" s="17"/>
+      <c r="F89" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="G89" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="H89" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="I89" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="J89" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="K89" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="L89" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="M89" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="N89" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="O89" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="P89" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q89" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="R89" s="19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="90" s="7" customFormat="1" spans="2:16">
+      <c r="B90" s="39"/>
+      <c r="C90" s="40"/>
+      <c r="D90" s="41"/>
+      <c r="E90" s="42"/>
+      <c r="F90" s="42"/>
+      <c r="G90" s="43"/>
+      <c r="H90" s="43"/>
+      <c r="I90" s="43"/>
+      <c r="J90" s="43"/>
+      <c r="K90" s="42"/>
+      <c r="L90" s="46"/>
+      <c r="M90" s="42"/>
+      <c r="N90" s="46"/>
+      <c r="O90" s="42"/>
+      <c r="P90" s="47"/>
     </row>
     <row r="91" spans="3:16">
-      <c r="C91" s="35"/>
-      <c r="D91" s="36"/>
-      <c r="E91" s="16"/>
-      <c r="F91" s="16"/>
-      <c r="G91" s="20"/>
-      <c r="H91" s="20"/>
-      <c r="I91" s="20"/>
-      <c r="J91" s="20"/>
-      <c r="K91" s="16"/>
-      <c r="L91" s="19"/>
-      <c r="M91" s="16"/>
-      <c r="N91" s="19"/>
-      <c r="O91" s="16"/>
-      <c r="P91" s="17"/>
+      <c r="C91" s="44"/>
+      <c r="D91" s="45"/>
+      <c r="E91" s="18"/>
+      <c r="F91" s="18"/>
+      <c r="G91" s="22"/>
+      <c r="H91" s="22"/>
+      <c r="I91" s="22"/>
+      <c r="J91" s="22"/>
+      <c r="K91" s="18"/>
+      <c r="L91" s="21"/>
+      <c r="M91" s="18"/>
+      <c r="N91" s="21"/>
+      <c r="O91" s="18"/>
+      <c r="P91" s="19"/>
     </row>
     <row r="92" spans="3:16">
-      <c r="C92" s="35"/>
-      <c r="D92" s="36"/>
-      <c r="E92" s="16"/>
-      <c r="F92" s="16"/>
-      <c r="G92" s="20"/>
-      <c r="H92" s="20"/>
-      <c r="I92" s="20"/>
-      <c r="J92" s="20"/>
-      <c r="K92" s="7"/>
-      <c r="L92" s="17"/>
-      <c r="M92" s="7"/>
-      <c r="N92" s="17"/>
-      <c r="O92" s="7"/>
-      <c r="P92" s="17"/>
+      <c r="C92" s="44"/>
+      <c r="D92" s="45"/>
+      <c r="E92" s="18"/>
+      <c r="F92" s="18"/>
+      <c r="G92" s="22"/>
+      <c r="H92" s="22"/>
+      <c r="I92" s="22"/>
+      <c r="J92" s="22"/>
+      <c r="K92" s="9"/>
+      <c r="L92" s="19"/>
+      <c r="M92" s="9"/>
+      <c r="N92" s="19"/>
+      <c r="O92" s="9"/>
+      <c r="P92" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="52">

--- a/Documents/Testing/TestsDocuments/ms6/ms6-traceability-matrix-group5.xlsx
+++ b/Documents/Testing/TestsDocuments/ms6/ms6-traceability-matrix-group5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="908" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="934" uniqueCount="209">
   <si>
     <t>Business Requirements</t>
   </si>
@@ -95,13 +95,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
       <t xml:space="preserve">Linking the function </t>
     </r>
     <r>
@@ -196,13 +189,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
       <t xml:space="preserve">Linking the function
 </t>
     </r>
@@ -295,13 +281,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
       <t xml:space="preserve">Linking the function
 </t>
     </r>
@@ -424,13 +403,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
       <t xml:space="preserve">Pass the data using user input in the </t>
     </r>
     <r>
@@ -623,13 +595,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
       <t xml:space="preserve">Linking the function </t>
     </r>
     <r>
@@ -741,6 +706,63 @@
     </r>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Linking the function
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>validateDestination()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  to unit test and
+use </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>assert (AreEqual)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> for testing. 
+If the expected result matches the actual results, test case pass.</t>
+    </r>
+  </si>
+  <si>
     <t>5F</t>
   </si>
   <si>
@@ -777,15 +799,10 @@
     <t xml:space="preserve">$#%2345sdsa </t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
+    <t>T049</t>
+  </si>
+  <si>
+    <r>
       <t>Integration Test:</t>
     </r>
     <r>
@@ -825,13 +842,7 @@
     <t xml:space="preserve">                       Invalid destination format</t>
   </si>
   <si>
-    <t>vs3</t>
-  </si>
-  <si>
-    <t>?</t>
-  </si>
-  <si>
-    <t>vs4</t>
+    <t>T050</t>
   </si>
   <si>
     <t>20 2 12L</t>
@@ -843,22 +854,32 @@
     <t xml:space="preserve">                                   Invalid size                                    </t>
   </si>
   <si>
+    <t>T051</t>
+  </si>
+  <si>
     <t>1005 .5 12L</t>
   </si>
   <si>
     <t xml:space="preserve">              Invalid weight (must be 1-1000 Kg.)</t>
   </si>
   <si>
+    <t>T052</t>
+  </si>
+  <si>
     <t>20 .5 12L</t>
   </si>
   <si>
     <t>Ship on BLUE LINE, no diversion</t>
   </si>
   <si>
-    <t xml:space="preserve">    Ship on BLUE LINE, divert: 11K, 10K, 10J, 9J, 9I, 8I, 8H, 7H, 7G, 6G, 6F, 5F, 5E, 4E, 4D, 3D, 3C, 2C, 2B, 1B, 1A, 0A, 12L</t>
+    <t xml:space="preserve">    Ship on BLUE LINE, divert: 
+11K, 10K, 10J, 9J, 9I, 8I, 8H, 7H, 7G, 6G, 6F, 5F, 5E, 4E, 4D, 3D, 3C, 2C, 2B, 1B, 1A, 0A, 12L</t>
   </si>
   <si>
     <t xml:space="preserve">                   Ship on BLUE LINE, no diversion</t>
+  </si>
+  <si>
+    <t>T053</t>
   </si>
   <si>
     <t>200 1.0 8Y</t>
@@ -893,7 +914,17 @@
     </r>
   </si>
   <si>
+    <t>Ship on GREEN LINE, divert
+ 7T, 7U, 7V, 7W, 7X, 7Y, 8Y</t>
+  </si>
+  <si>
+    <t>T054</t>
+  </si>
+  <si>
     <t>(1st) 500 1.0 8Y</t>
+  </si>
+  <si>
+    <t>T055</t>
   </si>
   <si>
     <t>(2nd) 500 1.0 8Y</t>
@@ -977,13 +1008,53 @@
     </r>
   </si>
   <si>
+    <r>
+      <t xml:space="preserve">Ship on </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>GREEN LINE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, divert
+ 7T, 7U, 7V, 7W, 7X, 7Y, 8Y</t>
+    </r>
+  </si>
+  <si>
+    <t>T056</t>
+  </si>
+  <si>
     <t xml:space="preserve">               Thanks for shipping with Seneca!</t>
   </si>
   <si>
     <t xml:space="preserve">                   Thanks for shipping with Seneca!</t>
   </si>
   <si>
-    <r>
+    <t>T057</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">Integration Test ii - MS6:
 </t>
     </r>
@@ -1006,6 +1077,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">Ship on </t>
     </r>
     <r>
@@ -1030,13 +1108,26 @@
     </r>
   </si>
   <si>
+    <t>T058</t>
+  </si>
+  <si>
     <t>(2nd) 500 1.0 12D</t>
   </si>
   <si>
+    <t>T059</t>
+  </si>
+  <si>
     <t>(1st) 500 1.0 12L</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">Ship on </t>
     </r>
     <r>
@@ -1061,21 +1152,22 @@
     </r>
   </si>
   <si>
+    <t>T060</t>
+  </si>
+  <si>
     <t>(2nd) 500 1.0 12L</t>
   </si>
   <si>
+    <t>T061</t>
+  </si>
+  <si>
     <t>(3rd) 500 1.0 12L</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
+    <t>T062</t>
+  </si>
+  <si>
+    <r>
       <t>Acceptance Test i - MS5:</t>
     </r>
     <r>
@@ -1106,14 +1198,16 @@
     <t>Accept user input and display output to the console. Compare the actual output with the expected output (sample output).</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
+    <t>T063</t>
+  </si>
+  <si>
+    <t>T064</t>
+  </si>
+  <si>
+    <t>T065</t>
+  </si>
+  <si>
+    <r>
       <t xml:space="preserve">Destination is valid. Processing package...
 Ship on BLUE LINE, </t>
     </r>
@@ -1135,8 +1229,12 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>: 11K, 10K, 10J, 9J, 9I, 8I, 8H, 7H, 7G, 6G, 6F, 5F, 5E, 4E, 4D, 3D, 3C, 2C, 2B, 1B, 1A, 0A, 12L</t>
-    </r>
+      <t>: 
+11K, 10K, 10J, 9J, 9I, 8I, 8H, 7H, 7G, 6G, 6F, 5F, 5E, 4E, 4D, 3D, 3C, 2C, 2B, 1B, 1A, 0A, 12L</t>
+    </r>
+  </si>
+  <si>
+    <t>T066</t>
   </si>
   <si>
     <r>
@@ -1189,11 +1287,24 @@
 7T, 7U, 7V, 7W, 7X, 7Y, 8Y</t>
   </si>
   <si>
+    <t>T067</t>
+  </si>
+  <si>
     <t>Ship on GREEN LINE, divert
 7T, 7U, 7V, 7W, 7X, 7Y, 8Y</t>
   </si>
   <si>
-    <r>
+    <t>T068</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>Ship on</t>
     </r>
     <r>
@@ -1220,6 +1331,22 @@
   </si>
   <si>
     <r>
+      <t xml:space="preserve">Destination is valid. Processing package...
+Ship on </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>GREEN LINE, divert: 8Y, 8Y</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
@@ -1262,40 +1389,21 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
+    <t>T069</t>
+  </si>
+  <si>
+    <t>T070</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Ship on</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> BLUE LINE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, divert 18V, 17V, 16V, 15V, 14V, 13V, 12V, 11V, 10V, 9V, 
-8V, 7V, 7W, 7X, 7Y, 8Y</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t>Acceptance Test ii - MS6:</t>
     </r>
     <r>
@@ -1309,6 +1417,18 @@
       <t xml:space="preserve">
 (same as above)</t>
     </r>
+  </si>
+  <si>
+    <t>T071</t>
+  </si>
+  <si>
+    <t>T072</t>
+  </si>
+  <si>
+    <t>T073</t>
+  </si>
+  <si>
+    <t>T074</t>
   </si>
   <si>
     <t>All TRUCKS NEARBY ARE IN FULL CAPACITY</t>
@@ -1334,7 +1454,6 @@
     </font>
     <font>
       <b/>
-      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -1343,6 +1462,7 @@
     </font>
     <font>
       <b/>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -1578,7 +1698,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="39">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1606,12 +1726,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1" tint="0.499984740745262"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.15"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1989,7 +2103,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2013,16 +2127,16 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -2031,89 +2145,89 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2133,37 +2247,40 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2172,6 +2289,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2199,6 +2319,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2217,43 +2340,46 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2577,35 +2703,35 @@
   <sheetPr/>
   <dimension ref="A1:R92"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="J79" workbookViewId="0">
-      <selection activeCell="P98" sqref="P98"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="J60" workbookViewId="0">
+      <selection activeCell="K79" sqref="K79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="13.4444444444444" style="8" customWidth="1"/>
-    <col min="2" max="2" width="9" style="9" customWidth="1"/>
+    <col min="1" max="1" width="13.4444444444444" style="7" customWidth="1"/>
+    <col min="2" max="2" width="9" style="8" customWidth="1"/>
     <col min="3" max="3" width="35.6666666666667" style="9" customWidth="1"/>
     <col min="4" max="4" width="39.2222222222222" style="9" customWidth="1"/>
     <col min="5" max="5" width="23.2222222222222" style="9" customWidth="1"/>
     <col min="6" max="6" width="45.4444444444444" style="9" customWidth="1"/>
     <col min="7" max="7" width="41.3333333333333" style="9" customWidth="1"/>
     <col min="8" max="8" width="15.7777777777778" style="9" customWidth="1"/>
-    <col min="9" max="9" width="41.3333333333333" style="8" customWidth="1"/>
-    <col min="10" max="10" width="15.7777777777778" style="8" customWidth="1"/>
-    <col min="11" max="11" width="41.3333333333333" style="8" customWidth="1"/>
-    <col min="12" max="12" width="15.7777777777778" style="8" customWidth="1"/>
-    <col min="13" max="13" width="41.7777777777778" style="8" customWidth="1"/>
-    <col min="14" max="14" width="15.7777777777778" style="8" customWidth="1"/>
-    <col min="15" max="15" width="41.7777777777778" style="8" customWidth="1"/>
-    <col min="16" max="16" width="15.7777777777778" style="8" customWidth="1"/>
-    <col min="17" max="17" width="41.7777777777778" style="8" customWidth="1"/>
-    <col min="18" max="18" width="15.7777777777778" style="8" customWidth="1"/>
-    <col min="19" max="16384" width="9" style="8"/>
+    <col min="9" max="9" width="41.3333333333333" style="7" customWidth="1"/>
+    <col min="10" max="10" width="15.7777777777778" style="7" customWidth="1"/>
+    <col min="11" max="11" width="41.3333333333333" style="7" customWidth="1"/>
+    <col min="12" max="12" width="15.7777777777778" style="7" customWidth="1"/>
+    <col min="13" max="13" width="41.7777777777778" style="7" customWidth="1"/>
+    <col min="14" max="14" width="15.7777777777778" style="7" customWidth="1"/>
+    <col min="15" max="15" width="41.7777777777778" style="7" customWidth="1"/>
+    <col min="16" max="16" width="15.7777777777778" style="7" customWidth="1"/>
+    <col min="17" max="17" width="41.7777777777778" style="7" customWidth="1"/>
+    <col min="18" max="18" width="15.7777777777778" style="7" customWidth="1"/>
+    <col min="19" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.15" spans="9:13">
-      <c r="I1" s="29" t="s">
+      <c r="I1" s="32" t="s">
         <v>0</v>
       </c>
       <c r="J1" s="9"/>
@@ -2618,97 +2744,97 @@
         <v>1</v>
       </c>
       <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="12" t="s">
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="13"/>
-      <c r="I2" s="12" t="s">
+      <c r="H2" s="14"/>
+      <c r="I2" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="13"/>
-      <c r="K2" s="12" t="s">
+      <c r="J2" s="14"/>
+      <c r="K2" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="L2" s="13"/>
-      <c r="M2" s="12" t="s">
+      <c r="L2" s="14"/>
+      <c r="M2" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="N2" s="13"/>
-      <c r="O2" s="12" t="s">
+      <c r="N2" s="14"/>
+      <c r="O2" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="P2" s="13"/>
-      <c r="Q2" s="12" t="s">
+      <c r="P2" s="14"/>
+      <c r="Q2" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="R2" s="13"/>
+      <c r="R2" s="14"/>
     </row>
     <row r="3" ht="29.55" spans="1:18">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="14"/>
-      <c r="C3" s="15" t="s">
+      <c r="B3" s="15"/>
+      <c r="C3" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="15" t="s">
+      <c r="F3" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="16" t="s">
+      <c r="G3" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="17" t="s">
+      <c r="H3" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="16" t="s">
+      <c r="I3" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="J3" s="17" t="s">
+      <c r="J3" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="K3" s="16" t="s">
+      <c r="K3" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="L3" s="17" t="s">
+      <c r="L3" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="M3" s="16" t="s">
+      <c r="M3" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="N3" s="17" t="s">
+      <c r="N3" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="O3" s="16" t="s">
+      <c r="O3" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="P3" s="17" t="s">
+      <c r="P3" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="Q3" s="16" t="s">
+      <c r="Q3" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="R3" s="17" t="s">
+      <c r="R3" s="18" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="4" ht="43.2" customHeight="1" spans="2:18">
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="19" t="s">
         <v>17</v>
       </c>
       <c r="E4" s="9">
@@ -2720,46 +2846,46 @@
       <c r="G4" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="H4" s="19" t="s">
+      <c r="H4" s="20" t="s">
         <v>18</v>
       </c>
       <c r="I4" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="J4" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="K4" s="30" t="s">
+      <c r="J4" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="K4" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="L4" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="M4" s="30" t="s">
+      <c r="L4" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="M4" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="N4" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="O4" s="30" t="s">
+      <c r="N4" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="O4" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="P4" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q4" s="30" t="s">
+      <c r="P4" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q4" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="R4" s="22" t="s">
+      <c r="R4" s="24" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="5" spans="2:18">
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="11"/>
-      <c r="D5" s="18"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="19"/>
       <c r="E5" s="9">
         <v>1000</v>
       </c>
@@ -2769,38 +2895,38 @@
       <c r="G5" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="H5" s="19" t="s">
+      <c r="H5" s="20" t="s">
         <v>18</v>
       </c>
       <c r="I5" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="J5" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="K5" s="31"/>
-      <c r="L5" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="M5" s="31"/>
-      <c r="N5" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="O5" s="31"/>
-      <c r="P5" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q5" s="31"/>
-      <c r="R5" s="22" t="s">
+      <c r="J5" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="K5" s="34"/>
+      <c r="L5" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="M5" s="34"/>
+      <c r="N5" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="O5" s="34"/>
+      <c r="P5" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q5" s="34"/>
+      <c r="R5" s="24" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="6" spans="2:18">
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="11"/>
-      <c r="D6" s="18"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="19"/>
       <c r="E6" s="9">
         <v>-0.1</v>
       </c>
@@ -2810,38 +2936,38 @@
       <c r="G6" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="H6" s="19" t="s">
+      <c r="H6" s="20" t="s">
         <v>18</v>
       </c>
       <c r="I6" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="J6" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="K6" s="31"/>
-      <c r="L6" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="M6" s="31"/>
-      <c r="N6" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="O6" s="31"/>
-      <c r="P6" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q6" s="31"/>
-      <c r="R6" s="22" t="s">
+      <c r="J6" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="K6" s="34"/>
+      <c r="L6" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="M6" s="34"/>
+      <c r="N6" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="O6" s="34"/>
+      <c r="P6" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q6" s="34"/>
+      <c r="R6" s="24" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="7" spans="2:18">
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="11"/>
-      <c r="D7" s="18"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="19"/>
       <c r="E7" s="9">
         <v>1000.1</v>
       </c>
@@ -2851,41 +2977,43 @@
       <c r="G7" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="H7" s="19" t="s">
+      <c r="H7" s="20" t="s">
         <v>18</v>
       </c>
       <c r="I7" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="J7" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="K7" s="31"/>
-      <c r="L7" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="M7" s="31"/>
-      <c r="N7" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="O7" s="31"/>
-      <c r="P7" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q7" s="31"/>
-      <c r="R7" s="22" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" s="2" customFormat="1"/>
+      <c r="J7" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="K7" s="34"/>
+      <c r="L7" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="M7" s="34"/>
+      <c r="N7" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="O7" s="34"/>
+      <c r="P7" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q7" s="34"/>
+      <c r="R7" s="24" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" s="2" customFormat="1" spans="2:2">
+      <c r="B8" s="21"/>
+    </row>
     <row r="9" ht="43.2" customHeight="1" spans="2:18">
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="18" t="s">
+      <c r="D9" s="19" t="s">
         <v>26</v>
       </c>
       <c r="E9" s="9">
@@ -2897,46 +3025,46 @@
       <c r="G9" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="H9" s="19" t="s">
+      <c r="H9" s="20" t="s">
         <v>18</v>
       </c>
       <c r="I9" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="J9" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="K9" s="31" t="s">
+      <c r="J9" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="K9" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="L9" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="M9" s="31" t="s">
+      <c r="L9" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="M9" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="N9" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="O9" s="31" t="s">
+      <c r="N9" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="O9" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="P9" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q9" s="31" t="s">
+      <c r="P9" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q9" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="R9" s="22" t="s">
+      <c r="R9" s="24" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="10" spans="2:18">
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="11"/>
-      <c r="D10" s="18"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="19"/>
       <c r="E10" s="9">
         <v>0.5</v>
       </c>
@@ -2946,38 +3074,38 @@
       <c r="G10" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="H10" s="19" t="s">
+      <c r="H10" s="20" t="s">
         <v>18</v>
       </c>
       <c r="I10" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="J10" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="K10" s="31"/>
-      <c r="L10" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="M10" s="31"/>
-      <c r="N10" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="O10" s="31"/>
-      <c r="P10" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q10" s="31"/>
-      <c r="R10" s="22" t="s">
+      <c r="J10" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="K10" s="34"/>
+      <c r="L10" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="M10" s="34"/>
+      <c r="N10" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="O10" s="34"/>
+      <c r="P10" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q10" s="34"/>
+      <c r="R10" s="24" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="11" spans="2:18">
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="11"/>
-      <c r="D11" s="18"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="19"/>
       <c r="E11" s="9">
         <v>1</v>
       </c>
@@ -2987,38 +3115,38 @@
       <c r="G11" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="H11" s="19" t="s">
+      <c r="H11" s="20" t="s">
         <v>18</v>
       </c>
       <c r="I11" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="J11" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="K11" s="31"/>
-      <c r="L11" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="M11" s="31"/>
-      <c r="N11" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="O11" s="31"/>
-      <c r="P11" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q11" s="31"/>
-      <c r="R11" s="22" t="s">
+      <c r="J11" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="K11" s="34"/>
+      <c r="L11" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="M11" s="34"/>
+      <c r="N11" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="O11" s="34"/>
+      <c r="P11" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q11" s="34"/>
+      <c r="R11" s="24" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="12" spans="2:18">
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="11"/>
-      <c r="D12" s="18"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="19"/>
       <c r="E12" s="9">
         <v>0.24</v>
       </c>
@@ -3028,38 +3156,38 @@
       <c r="G12" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="H12" s="19" t="s">
+      <c r="H12" s="20" t="s">
         <v>18</v>
       </c>
       <c r="I12" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="J12" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="K12" s="31"/>
-      <c r="L12" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="M12" s="31"/>
-      <c r="N12" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="O12" s="31"/>
-      <c r="P12" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q12" s="31"/>
-      <c r="R12" s="22" t="s">
+      <c r="J12" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="K12" s="34"/>
+      <c r="L12" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="M12" s="34"/>
+      <c r="N12" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="O12" s="34"/>
+      <c r="P12" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q12" s="34"/>
+      <c r="R12" s="24" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="13" spans="2:18">
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="11"/>
-      <c r="D13" s="18"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="19"/>
       <c r="E13" s="9">
         <v>-0.5</v>
       </c>
@@ -3069,38 +3197,38 @@
       <c r="G13" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="H13" s="19" t="s">
+      <c r="H13" s="20" t="s">
         <v>18</v>
       </c>
       <c r="I13" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="J13" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="K13" s="31"/>
-      <c r="L13" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="M13" s="31"/>
-      <c r="N13" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="O13" s="31"/>
-      <c r="P13" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q13" s="31"/>
-      <c r="R13" s="22" t="s">
+      <c r="J13" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="K13" s="34"/>
+      <c r="L13" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="M13" s="34"/>
+      <c r="N13" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="O13" s="34"/>
+      <c r="P13" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q13" s="34"/>
+      <c r="R13" s="24" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="14" spans="2:18">
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="11"/>
-      <c r="D14" s="18"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="19"/>
       <c r="E14" s="9">
         <v>1.1</v>
       </c>
@@ -3110,41 +3238,43 @@
       <c r="G14" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="H14" s="19" t="s">
+      <c r="H14" s="20" t="s">
         <v>18</v>
       </c>
       <c r="I14" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="J14" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="K14" s="31"/>
-      <c r="L14" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="M14" s="31"/>
-      <c r="N14" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="O14" s="31"/>
-      <c r="P14" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q14" s="31"/>
-      <c r="R14" s="22" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" s="2" customFormat="1"/>
+      <c r="J14" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="K14" s="34"/>
+      <c r="L14" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="M14" s="34"/>
+      <c r="N14" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="O14" s="34"/>
+      <c r="P14" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q14" s="34"/>
+      <c r="R14" s="24" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" s="2" customFormat="1" spans="2:2">
+      <c r="B15" s="21"/>
+    </row>
     <row r="16" spans="2:18">
-      <c r="B16" s="15" t="s">
+      <c r="B16" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="18" t="s">
+      <c r="C16" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="D16" s="18" t="s">
+      <c r="D16" s="19" t="s">
         <v>34</v>
       </c>
       <c r="E16" s="9" t="s">
@@ -3156,42 +3286,42 @@
       <c r="G16" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="H16" s="19" t="s">
+      <c r="H16" s="20" t="s">
         <v>18</v>
       </c>
       <c r="I16" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="J16" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="K16" s="32" t="s">
+      <c r="J16" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="K16" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="L16" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="M16" s="32" t="s">
+      <c r="L16" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="M16" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="N16" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="O16" s="32" t="s">
+      <c r="N16" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="O16" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="P16" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q16" s="32" t="s">
+      <c r="P16" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q16" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="R16" s="22" t="s">
+      <c r="R16" s="24" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="17" spans="2:18">
-      <c r="B17" s="15" t="s">
+      <c r="B17" s="16" t="s">
         <v>37</v>
       </c>
       <c r="E17" s="9" t="s">
@@ -3200,37 +3330,37 @@
       <c r="F17" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="G17" s="20" t="b">
+      <c r="G17" s="22" t="b">
         <v>0</v>
       </c>
-      <c r="H17" s="21" t="s">
+      <c r="H17" s="23" t="s">
         <v>39</v>
       </c>
       <c r="I17" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="J17" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="K17" s="11"/>
-      <c r="L17" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="M17" s="11"/>
-      <c r="N17" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="O17" s="11"/>
-      <c r="P17" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q17" s="11"/>
-      <c r="R17" s="22" t="s">
+      <c r="J17" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="K17" s="12"/>
+      <c r="L17" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="M17" s="12"/>
+      <c r="N17" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="O17" s="12"/>
+      <c r="P17" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q17" s="12"/>
+      <c r="R17" s="24" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="18" spans="2:18">
-      <c r="B18" s="15" t="s">
+      <c r="B18" s="16" t="s">
         <v>40</v>
       </c>
       <c r="E18" s="9" t="s">
@@ -3239,37 +3369,37 @@
       <c r="F18" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="G18" s="20" t="b">
+      <c r="G18" s="22" t="b">
         <v>0</v>
       </c>
-      <c r="H18" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="I18" s="20" t="b">
+      <c r="H18" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="I18" s="22" t="b">
         <v>0</v>
       </c>
-      <c r="J18" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="K18" s="11"/>
-      <c r="L18" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="M18" s="11"/>
-      <c r="N18" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="O18" s="11"/>
-      <c r="P18" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q18" s="11"/>
-      <c r="R18" s="22" t="s">
+      <c r="J18" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="K18" s="12"/>
+      <c r="L18" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="M18" s="12"/>
+      <c r="N18" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="O18" s="12"/>
+      <c r="P18" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q18" s="12"/>
+      <c r="R18" s="24" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="19" spans="2:18">
-      <c r="B19" s="15" t="s">
+      <c r="B19" s="16" t="s">
         <v>42</v>
       </c>
       <c r="E19" s="9" t="s">
@@ -3278,37 +3408,37 @@
       <c r="F19" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="G19" s="20" t="b">
+      <c r="G19" s="22" t="b">
         <v>0</v>
       </c>
-      <c r="H19" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="I19" s="20" t="b">
+      <c r="H19" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="I19" s="22" t="b">
         <v>0</v>
       </c>
-      <c r="J19" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="K19" s="11"/>
-      <c r="L19" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="M19" s="11"/>
-      <c r="N19" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="O19" s="11"/>
-      <c r="P19" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q19" s="11"/>
-      <c r="R19" s="22" t="s">
+      <c r="J19" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="K19" s="12"/>
+      <c r="L19" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="M19" s="12"/>
+      <c r="N19" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="O19" s="12"/>
+      <c r="P19" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q19" s="12"/>
+      <c r="R19" s="24" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="20" spans="2:18">
-      <c r="B20" s="15" t="s">
+      <c r="B20" s="16" t="s">
         <v>44</v>
       </c>
       <c r="E20" s="9" t="s">
@@ -3317,37 +3447,37 @@
       <c r="F20" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="G20" s="20" t="b">
+      <c r="G20" s="22" t="b">
         <v>0</v>
       </c>
-      <c r="H20" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="I20" s="20" t="b">
+      <c r="H20" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="I20" s="22" t="b">
         <v>0</v>
       </c>
-      <c r="J20" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="K20" s="11"/>
-      <c r="L20" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="M20" s="11"/>
-      <c r="N20" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="O20" s="11"/>
-      <c r="P20" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q20" s="11"/>
-      <c r="R20" s="22" t="s">
+      <c r="J20" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="K20" s="12"/>
+      <c r="L20" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="M20" s="12"/>
+      <c r="N20" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="O20" s="12"/>
+      <c r="P20" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q20" s="12"/>
+      <c r="R20" s="24" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="21" spans="2:18">
-      <c r="B21" s="15" t="s">
+      <c r="B21" s="16" t="s">
         <v>46</v>
       </c>
       <c r="E21" s="9" t="s">
@@ -3359,34 +3489,34 @@
       <c r="G21" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="H21" s="21" t="s">
+      <c r="H21" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="I21" s="20" t="b">
+      <c r="I21" s="22" t="b">
         <v>0</v>
       </c>
-      <c r="J21" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="K21" s="11"/>
-      <c r="L21" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="M21" s="11"/>
-      <c r="N21" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="O21" s="11"/>
-      <c r="P21" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q21" s="11"/>
-      <c r="R21" s="22" t="s">
+      <c r="J21" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="K21" s="12"/>
+      <c r="L21" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="M21" s="12"/>
+      <c r="N21" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="O21" s="12"/>
+      <c r="P21" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q21" s="12"/>
+      <c r="R21" s="24" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="22" spans="2:18">
-      <c r="B22" s="15" t="s">
+      <c r="B22" s="16" t="s">
         <v>48</v>
       </c>
       <c r="E22" s="9" t="s">
@@ -3395,37 +3525,37 @@
       <c r="F22" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="G22" s="20" t="b">
+      <c r="G22" s="22" t="b">
         <v>0</v>
       </c>
-      <c r="H22" s="21" t="s">
+      <c r="H22" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="I22" s="20" t="b">
+      <c r="I22" s="22" t="b">
         <v>0</v>
       </c>
-      <c r="J22" s="21" t="s">
+      <c r="J22" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="K22" s="11"/>
-      <c r="L22" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="M22" s="11"/>
-      <c r="N22" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="O22" s="11"/>
-      <c r="P22" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q22" s="11"/>
-      <c r="R22" s="22" t="s">
+      <c r="K22" s="12"/>
+      <c r="L22" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="M22" s="12"/>
+      <c r="N22" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="O22" s="12"/>
+      <c r="P22" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q22" s="12"/>
+      <c r="R22" s="24" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="23" spans="2:18">
-      <c r="B23" s="15" t="s">
+      <c r="B23" s="16" t="s">
         <v>50</v>
       </c>
       <c r="E23" s="9" t="s">
@@ -3434,37 +3564,37 @@
       <c r="F23" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="G23" s="20" t="b">
+      <c r="G23" s="22" t="b">
         <v>0</v>
       </c>
-      <c r="H23" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="I23" s="20" t="b">
+      <c r="H23" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="I23" s="22" t="b">
         <v>0</v>
       </c>
-      <c r="J23" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="K23" s="11"/>
-      <c r="L23" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="M23" s="11"/>
-      <c r="N23" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="O23" s="11"/>
-      <c r="P23" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q23" s="11"/>
-      <c r="R23" s="22" t="s">
+      <c r="J23" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="K23" s="12"/>
+      <c r="L23" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="M23" s="12"/>
+      <c r="N23" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="O23" s="12"/>
+      <c r="P23" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q23" s="12"/>
+      <c r="R23" s="24" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="24" spans="2:18">
-      <c r="B24" s="15" t="s">
+      <c r="B24" s="16" t="s">
         <v>52</v>
       </c>
       <c r="E24" s="9" t="s">
@@ -3473,37 +3603,37 @@
       <c r="F24" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="G24" s="20" t="s">
+      <c r="G24" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="H24" s="21" t="s">
+      <c r="H24" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="I24" s="20" t="s">
+      <c r="I24" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="J24" s="21" t="s">
+      <c r="J24" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="K24" s="11"/>
-      <c r="L24" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="M24" s="11"/>
-      <c r="N24" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="O24" s="11"/>
-      <c r="P24" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q24" s="11"/>
-      <c r="R24" s="22" t="s">
+      <c r="K24" s="12"/>
+      <c r="L24" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="M24" s="12"/>
+      <c r="N24" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="O24" s="12"/>
+      <c r="P24" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q24" s="12"/>
+      <c r="R24" s="24" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="25" spans="2:18">
-      <c r="B25" s="15" t="s">
+      <c r="B25" s="16" t="s">
         <v>55</v>
       </c>
       <c r="E25" s="9" t="s">
@@ -3515,41 +3645,43 @@
       <c r="G25" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="H25" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="I25" s="22" t="b">
+      <c r="H25" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="I25" s="24" t="b">
         <v>0</v>
       </c>
-      <c r="J25" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="K25" s="11"/>
-      <c r="L25" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="M25" s="11"/>
-      <c r="N25" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="O25" s="11"/>
-      <c r="P25" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q25" s="11"/>
-      <c r="R25" s="22" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="26" s="2" customFormat="1"/>
+      <c r="J25" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="K25" s="12"/>
+      <c r="L25" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="M25" s="12"/>
+      <c r="N25" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="O25" s="12"/>
+      <c r="P25" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q25" s="12"/>
+      <c r="R25" s="24" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" s="2" customFormat="1" spans="2:2">
+      <c r="B26" s="21"/>
+    </row>
     <row r="27" ht="28.8" customHeight="1" spans="2:18">
-      <c r="B27" s="15" t="s">
+      <c r="B27" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="C27" s="18" t="s">
+      <c r="C27" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="D27" s="18" t="s">
+      <c r="D27" s="19" t="s">
         <v>59</v>
       </c>
       <c r="E27" s="9" t="s">
@@ -3558,98 +3690,98 @@
       <c r="F27" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="G27" s="11" t="s">
+      <c r="G27" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="H27" s="21" t="s">
+      <c r="H27" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="I27" s="18" t="s">
+      <c r="I27" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="J27" s="21" t="s">
+      <c r="J27" s="23" t="s">
         <v>39</v>
       </c>
       <c r="K27" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="L27" s="19" t="s">
+      <c r="L27" s="20" t="s">
         <v>18</v>
       </c>
       <c r="M27" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="N27" s="19" t="s">
+      <c r="N27" s="20" t="s">
         <v>18</v>
       </c>
       <c r="O27" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="P27" s="19" t="s">
+      <c r="P27" s="20" t="s">
         <v>18</v>
       </c>
       <c r="Q27" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="R27" s="19" t="s">
+      <c r="R27" s="20" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="28" spans="2:18">
-      <c r="B28" s="15" t="s">
+      <c r="B28" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="C28" s="11"/>
-      <c r="D28" s="18"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="19"/>
       <c r="E28" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="F28" s="22" t="s">
+      <c r="F28" s="24" t="s">
         <v>61</v>
       </c>
       <c r="G28" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="H28" s="21" t="s">
+      <c r="H28" s="23" t="s">
         <v>39</v>
       </c>
       <c r="I28" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="J28" s="21" t="s">
+      <c r="J28" s="23" t="s">
         <v>39</v>
       </c>
       <c r="K28" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="L28" s="19" t="s">
+      <c r="L28" s="20" t="s">
         <v>18</v>
       </c>
       <c r="M28" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="N28" s="19" t="s">
+      <c r="N28" s="20" t="s">
         <v>18</v>
       </c>
       <c r="O28" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="P28" s="19" t="s">
+      <c r="P28" s="20" t="s">
         <v>18</v>
       </c>
       <c r="Q28" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="R28" s="19" t="s">
+      <c r="R28" s="20" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="29" spans="2:18">
-      <c r="B29" s="15" t="s">
+      <c r="B29" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="C29" s="11"/>
-      <c r="D29" s="18"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="19"/>
       <c r="E29" s="9" t="s">
         <v>67</v>
       </c>
@@ -3659,46 +3791,46 @@
       <c r="G29" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="H29" s="19" t="s">
+      <c r="H29" s="20" t="s">
         <v>18</v>
       </c>
       <c r="I29" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="J29" s="19" t="s">
+      <c r="J29" s="20" t="s">
         <v>18</v>
       </c>
       <c r="K29" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="L29" s="19" t="s">
+      <c r="L29" s="20" t="s">
         <v>18</v>
       </c>
       <c r="M29" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="N29" s="19" t="s">
+      <c r="N29" s="20" t="s">
         <v>18</v>
       </c>
       <c r="O29" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="P29" s="19" t="s">
+      <c r="P29" s="20" t="s">
         <v>18</v>
       </c>
       <c r="Q29" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="R29" s="19" t="s">
+      <c r="R29" s="20" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="30" spans="2:18">
-      <c r="B30" s="15" t="s">
+      <c r="B30" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="C30" s="11"/>
-      <c r="D30" s="18"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="19"/>
       <c r="E30" s="9" t="s">
         <v>70</v>
       </c>
@@ -3708,46 +3840,46 @@
       <c r="G30" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="H30" s="19" t="s">
+      <c r="H30" s="20" t="s">
         <v>18</v>
       </c>
       <c r="I30" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="J30" s="19" t="s">
+      <c r="J30" s="20" t="s">
         <v>18</v>
       </c>
       <c r="K30" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="L30" s="19" t="s">
+      <c r="L30" s="20" t="s">
         <v>18</v>
       </c>
       <c r="M30" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="N30" s="19" t="s">
+      <c r="N30" s="20" t="s">
         <v>18</v>
       </c>
       <c r="O30" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="P30" s="19" t="s">
+      <c r="P30" s="20" t="s">
         <v>18</v>
       </c>
       <c r="Q30" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="R30" s="19" t="s">
+      <c r="R30" s="20" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="31" spans="2:18">
-      <c r="B31" s="15" t="s">
+      <c r="B31" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="C31" s="11"/>
-      <c r="D31" s="18"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="19"/>
       <c r="E31" s="9" t="s">
         <v>74</v>
       </c>
@@ -3757,47 +3889,47 @@
       <c r="G31" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="H31" s="19" t="s">
+      <c r="H31" s="20" t="s">
         <v>18</v>
       </c>
       <c r="I31" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="J31" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="K31" s="33" t="s">
+      <c r="J31" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="K31" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="L31" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="M31" s="33" t="s">
+      <c r="L31" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="M31" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="N31" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="O31" s="33" t="s">
+      <c r="N31" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="O31" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="P31" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q31" s="33" t="s">
+      <c r="P31" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q31" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="R31" s="19" t="s">
+      <c r="R31" s="20" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="32" spans="2:18">
-      <c r="B32" s="15" t="s">
+      <c r="B32" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="C32" s="11"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="23" t="s">
+      <c r="C32" s="12"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="25" t="s">
         <v>79</v>
       </c>
       <c r="F32" s="9" t="s">
@@ -3806,46 +3938,46 @@
       <c r="G32" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="H32" s="19" t="s">
+      <c r="H32" s="20" t="s">
         <v>18</v>
       </c>
       <c r="I32" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="J32" s="19" t="s">
+      <c r="J32" s="20" t="s">
         <v>18</v>
       </c>
       <c r="K32" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="L32" s="19" t="s">
+      <c r="L32" s="20" t="s">
         <v>18</v>
       </c>
       <c r="M32" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="N32" s="19" t="s">
+      <c r="N32" s="20" t="s">
         <v>18</v>
       </c>
       <c r="O32" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="P32" s="19" t="s">
+      <c r="P32" s="20" t="s">
         <v>18</v>
       </c>
       <c r="Q32" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="R32" s="19" t="s">
+      <c r="R32" s="20" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="33" spans="2:18">
-      <c r="B33" s="15" t="s">
+      <c r="B33" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="C33" s="11"/>
-      <c r="D33" s="18"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="19"/>
       <c r="E33" s="9" t="s">
         <v>82</v>
       </c>
@@ -3855,46 +3987,46 @@
       <c r="G33" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="H33" s="21" t="s">
+      <c r="H33" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="I33" s="22" t="s">
+      <c r="I33" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="J33" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="K33" s="22" t="s">
+      <c r="J33" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="K33" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="L33" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="M33" s="22" t="s">
+      <c r="L33" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="M33" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="N33" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="O33" s="22" t="s">
+      <c r="N33" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="O33" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="P33" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q33" s="22" t="s">
+      <c r="P33" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q33" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="R33" s="19" t="s">
+      <c r="R33" s="20" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="34" spans="2:18">
-      <c r="B34" s="15" t="s">
+      <c r="B34" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="C34" s="11"/>
-      <c r="D34" s="18"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="19"/>
       <c r="E34" s="9" t="s">
         <v>86</v>
       </c>
@@ -3904,46 +4036,46 @@
       <c r="G34" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="H34" s="21" t="s">
+      <c r="H34" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="I34" s="22" t="s">
+      <c r="I34" s="24" t="s">
         <v>88</v>
       </c>
-      <c r="J34" s="21" t="s">
+      <c r="J34" s="23" t="s">
         <v>39</v>
       </c>
       <c r="K34" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="L34" s="21" t="s">
+      <c r="L34" s="23" t="s">
         <v>39</v>
       </c>
       <c r="M34" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="N34" s="19" t="s">
+      <c r="N34" s="20" t="s">
         <v>18</v>
       </c>
       <c r="O34" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="P34" s="19" t="s">
+      <c r="P34" s="20" t="s">
         <v>18</v>
       </c>
       <c r="Q34" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="R34" s="19" t="s">
+      <c r="R34" s="20" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="35" spans="2:18">
-      <c r="B35" s="15" t="s">
+      <c r="B35" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="C35" s="11"/>
-      <c r="D35" s="18"/>
+      <c r="C35" s="12"/>
+      <c r="D35" s="19"/>
       <c r="E35" s="9" t="s">
         <v>91</v>
       </c>
@@ -3953,47 +4085,47 @@
       <c r="G35" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="H35" s="21" t="s">
+      <c r="H35" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="I35" s="22" t="s">
+      <c r="I35" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="J35" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="K35" s="31" t="s">
+      <c r="J35" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="K35" s="34" t="s">
         <v>92</v>
       </c>
-      <c r="L35" s="21" t="s">
+      <c r="L35" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="M35" s="22" t="s">
+      <c r="M35" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="N35" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="O35" s="22" t="s">
+      <c r="N35" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="O35" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="P35" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q35" s="22" t="s">
+      <c r="P35" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q35" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="R35" s="19" t="s">
+      <c r="R35" s="20" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="36" spans="2:18">
-      <c r="B36" s="15" t="s">
+      <c r="B36" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="C36" s="11"/>
-      <c r="D36" s="18"/>
-      <c r="E36" s="24" t="s">
+      <c r="C36" s="12"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="26" t="s">
         <v>94</v>
       </c>
       <c r="F36" s="9" t="s">
@@ -4002,157 +4134,163 @@
       <c r="G36" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="H36" s="21" t="s">
+      <c r="H36" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="I36" s="22" t="s">
+      <c r="I36" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="J36" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="K36" s="31" t="s">
+      <c r="J36" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="K36" s="34" t="s">
         <v>92</v>
       </c>
-      <c r="L36" s="21" t="s">
+      <c r="L36" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="M36" s="22" t="s">
+      <c r="M36" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="N36" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="O36" s="22" t="s">
+      <c r="N36" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="O36" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="P36" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q36" s="22" t="s">
+      <c r="P36" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q36" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="R36" s="19" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="37" s="2" customFormat="1"/>
+      <c r="R36" s="20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="37" s="2" customFormat="1" spans="2:2">
+      <c r="B37" s="21"/>
+    </row>
     <row r="38" ht="43.2" spans="2:18">
-      <c r="B38" s="15" t="s">
+      <c r="B38" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="C38" s="18" t="s">
+      <c r="C38" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="D38" s="22" t="s">
+      <c r="D38" s="24" t="s">
         <v>97</v>
       </c>
-      <c r="E38" s="25" t="s">
+      <c r="E38" s="27" t="s">
         <v>98</v>
       </c>
-      <c r="F38" s="26" t="s">
+      <c r="F38" s="28" t="s">
         <v>99</v>
       </c>
-      <c r="G38" s="26" t="s">
+      <c r="G38" s="28" t="s">
         <v>99</v>
       </c>
-      <c r="H38" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="I38" s="26" t="s">
+      <c r="H38" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="I38" s="28" t="s">
         <v>99</v>
       </c>
-      <c r="J38" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="K38" s="26" t="s">
+      <c r="J38" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="K38" s="28" t="s">
         <v>99</v>
       </c>
-      <c r="L38" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="M38" s="26" t="s">
+      <c r="L38" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="M38" s="28" t="s">
         <v>99</v>
       </c>
-      <c r="N38" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="O38" s="26" t="s">
+      <c r="N38" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="O38" s="28" t="s">
         <v>99</v>
       </c>
-      <c r="P38" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q38" s="26" t="s">
+      <c r="P38" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q38" s="28" t="s">
         <v>99</v>
       </c>
-      <c r="R38" s="19" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="39" s="2" customFormat="1"/>
+      <c r="R38" s="20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="39" s="2" customFormat="1" spans="2:2">
+      <c r="B39" s="21"/>
+    </row>
     <row r="40" ht="15" customHeight="1" spans="2:18">
-      <c r="B40" s="15" t="s">
+      <c r="B40" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="C40" s="18" t="s">
+      <c r="C40" s="19" t="s">
         <v>101</v>
       </c>
       <c r="D40" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="E40" s="25" t="s">
+      <c r="E40" s="27" t="s">
         <v>98</v>
       </c>
-      <c r="F40" s="25" t="s">
+      <c r="F40" s="27" t="s">
         <v>103</v>
       </c>
-      <c r="G40" s="25" t="s">
+      <c r="G40" s="27" t="s">
         <v>103</v>
       </c>
-      <c r="H40" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="I40" s="25" t="s">
+      <c r="H40" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="I40" s="27" t="s">
         <v>104</v>
       </c>
-      <c r="J40" s="21" t="s">
+      <c r="J40" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="K40" s="25" t="s">
+      <c r="K40" s="27" t="s">
         <v>103</v>
       </c>
-      <c r="L40" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="M40" s="25" t="s">
+      <c r="L40" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="M40" s="27" t="s">
         <v>103</v>
       </c>
-      <c r="N40" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="O40" s="25" t="s">
+      <c r="N40" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="O40" s="27" t="s">
         <v>103</v>
       </c>
-      <c r="P40" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q40" s="25" t="s">
+      <c r="P40" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q40" s="27" t="s">
         <v>103</v>
       </c>
-      <c r="R40" s="19" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="41" s="2" customFormat="1"/>
+      <c r="R40" s="20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="41" s="2" customFormat="1" spans="2:2">
+      <c r="B41" s="21"/>
+    </row>
     <row r="42" customHeight="1" spans="2:18">
-      <c r="B42" s="15" t="s">
+      <c r="B42" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="C42" s="18" t="s">
+      <c r="C42" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="D42" s="18" t="s">
+      <c r="D42" s="19" t="s">
         <v>107</v>
       </c>
       <c r="E42" s="9">
@@ -4161,224 +4299,224 @@
       <c r="F42" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="G42" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="H42" s="22" t="s">
+      <c r="G42" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="H42" s="24" t="s">
         <v>20</v>
       </c>
       <c r="I42" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="J42" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="K42" s="31" t="s">
+      <c r="J42" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="K42" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="L42" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="M42" s="31" t="s">
+      <c r="L42" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="M42" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="N42" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="O42" s="31" t="s">
+      <c r="N42" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="O42" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="P42" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q42" s="31" t="s">
+      <c r="P42" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q42" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="R42" s="22" t="s">
+      <c r="R42" s="24" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="43" spans="2:18">
-      <c r="B43" s="15" t="s">
+      <c r="B43" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="C43" s="18"/>
-      <c r="D43" s="18"/>
+      <c r="C43" s="19"/>
+      <c r="D43" s="19"/>
       <c r="E43" s="9">
         <v>1</v>
       </c>
       <c r="F43" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="G43" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="H43" s="22" t="s">
+      <c r="G43" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="H43" s="24" t="s">
         <v>20</v>
       </c>
       <c r="I43" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="J43" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="K43" s="31"/>
-      <c r="L43" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="M43" s="31"/>
-      <c r="N43" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="O43" s="31"/>
-      <c r="P43" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q43" s="31"/>
-      <c r="R43" s="22" t="s">
+      <c r="J43" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="K43" s="34"/>
+      <c r="L43" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="M43" s="34"/>
+      <c r="N43" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="O43" s="34"/>
+      <c r="P43" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q43" s="34"/>
+      <c r="R43" s="24" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="44" spans="2:18">
-      <c r="B44" s="15" t="s">
+      <c r="B44" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="C44" s="18"/>
-      <c r="D44" s="18"/>
+      <c r="C44" s="19"/>
+      <c r="D44" s="19"/>
       <c r="E44" s="9">
         <v>1000</v>
       </c>
       <c r="F44" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="G44" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="H44" s="22" t="s">
+      <c r="G44" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="H44" s="24" t="s">
         <v>20</v>
       </c>
       <c r="I44" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="J44" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="K44" s="31"/>
-      <c r="L44" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="M44" s="31"/>
-      <c r="N44" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="O44" s="31"/>
-      <c r="P44" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q44" s="31"/>
-      <c r="R44" s="22" t="s">
+      <c r="J44" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="K44" s="34"/>
+      <c r="L44" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="M44" s="34"/>
+      <c r="N44" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="O44" s="34"/>
+      <c r="P44" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q44" s="34"/>
+      <c r="R44" s="24" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="45" spans="2:18">
-      <c r="B45" s="15" t="s">
+      <c r="B45" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="C45" s="18"/>
-      <c r="D45" s="18"/>
+      <c r="C45" s="19"/>
+      <c r="D45" s="19"/>
       <c r="E45" s="9">
         <v>1234.321</v>
       </c>
       <c r="F45" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="G45" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="H45" s="22" t="s">
+      <c r="G45" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="H45" s="24" t="s">
         <v>20</v>
       </c>
       <c r="I45" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="J45" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="K45" s="31"/>
-      <c r="L45" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="M45" s="31"/>
-      <c r="N45" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="O45" s="31"/>
-      <c r="P45" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q45" s="31"/>
-      <c r="R45" s="22" t="s">
+      <c r="J45" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="K45" s="34"/>
+      <c r="L45" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="M45" s="34"/>
+      <c r="N45" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="O45" s="34"/>
+      <c r="P45" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q45" s="34"/>
+      <c r="R45" s="24" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="46" spans="2:18">
-      <c r="B46" s="15" t="s">
+      <c r="B46" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="C46" s="18"/>
-      <c r="D46" s="18"/>
-      <c r="E46" s="22" t="s">
+      <c r="C46" s="19"/>
+      <c r="D46" s="19"/>
+      <c r="E46" s="24" t="s">
         <v>112</v>
       </c>
       <c r="F46" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="G46" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="H46" s="22" t="s">
+      <c r="G46" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="H46" s="24" t="s">
         <v>20</v>
       </c>
       <c r="I46" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="J46" s="21" t="s">
+      <c r="J46" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="K46" s="31"/>
-      <c r="L46" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="M46" s="31"/>
-      <c r="N46" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="O46" s="31"/>
-      <c r="P46" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q46" s="31"/>
-      <c r="R46" s="22" t="s">
+      <c r="K46" s="34"/>
+      <c r="L46" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="M46" s="34"/>
+      <c r="N46" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="O46" s="34"/>
+      <c r="P46" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q46" s="34"/>
+      <c r="R46" s="24" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="47" s="2" customFormat="1" spans="2:10">
-      <c r="B47" s="27"/>
-      <c r="E47" s="27"/>
-      <c r="F47" s="27"/>
-      <c r="G47" s="28"/>
-      <c r="H47" s="28"/>
-      <c r="I47" s="27"/>
-      <c r="J47" s="27"/>
+      <c r="B47" s="21"/>
+      <c r="E47" s="29"/>
+      <c r="F47" s="29"/>
+      <c r="G47" s="30"/>
+      <c r="H47" s="30"/>
+      <c r="I47" s="29"/>
+      <c r="J47" s="29"/>
     </row>
     <row r="48" customHeight="1" spans="2:18">
-      <c r="B48" s="15" t="s">
+      <c r="B48" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="C48" s="18" t="s">
+      <c r="C48" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="D48" s="18" t="s">
+      <c r="D48" s="19" t="s">
         <v>26</v>
       </c>
       <c r="E48" s="9">
@@ -4387,1762 +4525,1833 @@
       <c r="F48" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="G48" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="H48" s="22" t="s">
+      <c r="G48" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="H48" s="24" t="s">
         <v>20</v>
       </c>
       <c r="I48" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="J48" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="K48" s="31" t="s">
+      <c r="J48" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="K48" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="L48" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="M48" s="31" t="s">
+      <c r="L48" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="M48" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="N48" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="O48" s="31" t="s">
+      <c r="N48" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="O48" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="P48" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q48" s="31" t="s">
+      <c r="P48" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q48" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="R48" s="22" t="s">
+      <c r="R48" s="24" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="49" spans="2:18">
-      <c r="B49" s="15" t="s">
+      <c r="B49" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="C49" s="11"/>
-      <c r="D49" s="18"/>
+      <c r="C49" s="12"/>
+      <c r="D49" s="19"/>
       <c r="E49" s="9">
         <v>0.5</v>
       </c>
       <c r="F49" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="G49" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="H49" s="22" t="s">
+      <c r="G49" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="H49" s="24" t="s">
         <v>20</v>
       </c>
       <c r="I49" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="J49" s="19" t="s">
+      <c r="J49" s="20" t="s">
         <v>18</v>
       </c>
       <c r="K49" s="9"/>
-      <c r="L49" s="22" t="s">
+      <c r="L49" s="24" t="s">
         <v>20</v>
       </c>
       <c r="M49" s="9"/>
-      <c r="N49" s="22" t="s">
+      <c r="N49" s="24" t="s">
         <v>20</v>
       </c>
       <c r="O49" s="9"/>
-      <c r="P49" s="22" t="s">
+      <c r="P49" s="24" t="s">
         <v>20</v>
       </c>
       <c r="Q49" s="9"/>
-      <c r="R49" s="22" t="s">
+      <c r="R49" s="24" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="50" spans="2:18">
-      <c r="B50" s="15" t="s">
+      <c r="B50" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="C50" s="11"/>
-      <c r="D50" s="18"/>
+      <c r="C50" s="12"/>
+      <c r="D50" s="19"/>
       <c r="E50" s="9">
         <v>1</v>
       </c>
       <c r="F50" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="G50" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="H50" s="22" t="s">
+      <c r="G50" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="H50" s="24" t="s">
         <v>20</v>
       </c>
       <c r="I50" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="J50" s="19" t="s">
+      <c r="J50" s="20" t="s">
         <v>18</v>
       </c>
       <c r="K50" s="9"/>
-      <c r="L50" s="22" t="s">
+      <c r="L50" s="24" t="s">
         <v>20</v>
       </c>
       <c r="M50" s="9"/>
-      <c r="N50" s="22" t="s">
+      <c r="N50" s="24" t="s">
         <v>20</v>
       </c>
       <c r="O50" s="9"/>
-      <c r="P50" s="22" t="s">
+      <c r="P50" s="24" t="s">
         <v>20</v>
       </c>
       <c r="Q50" s="9"/>
-      <c r="R50" s="22" t="s">
+      <c r="R50" s="24" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="51" spans="2:18">
-      <c r="B51" s="15" t="s">
+      <c r="B51" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="C51" s="11"/>
-      <c r="D51" s="18"/>
+      <c r="C51" s="12"/>
+      <c r="D51" s="19"/>
       <c r="E51" s="9">
         <v>0.75</v>
       </c>
       <c r="F51" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="G51" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="H51" s="22" t="s">
+      <c r="G51" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="H51" s="24" t="s">
         <v>20</v>
       </c>
       <c r="I51" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="J51" s="19" t="s">
+      <c r="J51" s="20" t="s">
         <v>18</v>
       </c>
       <c r="K51" s="9"/>
-      <c r="L51" s="22" t="s">
+      <c r="L51" s="24" t="s">
         <v>20</v>
       </c>
       <c r="M51" s="9"/>
-      <c r="N51" s="22" t="s">
+      <c r="N51" s="24" t="s">
         <v>20</v>
       </c>
       <c r="O51" s="9"/>
-      <c r="P51" s="22" t="s">
+      <c r="P51" s="24" t="s">
         <v>20</v>
       </c>
       <c r="Q51" s="9"/>
-      <c r="R51" s="22" t="s">
+      <c r="R51" s="24" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="52" spans="2:18">
-      <c r="B52" s="15" t="s">
+      <c r="B52" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="C52" s="11"/>
-      <c r="D52" s="18"/>
-      <c r="E52" s="22" t="s">
+      <c r="C52" s="12"/>
+      <c r="D52" s="19"/>
+      <c r="E52" s="24" t="s">
         <v>119</v>
       </c>
       <c r="F52" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="G52" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="H52" s="22" t="s">
+      <c r="G52" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="H52" s="24" t="s">
         <v>20</v>
       </c>
       <c r="I52" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="J52" s="19" t="s">
+      <c r="J52" s="20" t="s">
         <v>18</v>
       </c>
       <c r="K52" s="9"/>
-      <c r="L52" s="22" t="s">
+      <c r="L52" s="24" t="s">
         <v>20</v>
       </c>
       <c r="M52" s="9"/>
-      <c r="N52" s="22" t="s">
+      <c r="N52" s="24" t="s">
         <v>20</v>
       </c>
       <c r="O52" s="9"/>
-      <c r="P52" s="22" t="s">
+      <c r="P52" s="24" t="s">
         <v>20</v>
       </c>
       <c r="Q52" s="9"/>
-      <c r="R52" s="22" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="53" s="2" customFormat="1"/>
+      <c r="R52" s="24" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="53" s="2" customFormat="1" spans="2:2">
+      <c r="B53" s="21"/>
+    </row>
     <row r="54" customHeight="1" spans="2:18">
-      <c r="B54" s="15" t="s">
+      <c r="B54" s="16" t="s">
         <v>120</v>
       </c>
-      <c r="C54" s="18" t="s">
+      <c r="C54" s="19" t="s">
         <v>121</v>
       </c>
-      <c r="D54" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="E54" s="22" t="s">
+      <c r="D54" s="19" t="s">
         <v>122</v>
+      </c>
+      <c r="E54" s="24" t="s">
+        <v>123</v>
       </c>
       <c r="F54" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="G54" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="H54" s="22" t="s">
+      <c r="G54" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="H54" s="24" t="s">
         <v>20</v>
       </c>
       <c r="I54" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="J54" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="K54" s="32" t="s">
+      <c r="J54" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="K54" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="L54" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="M54" s="32" t="s">
+      <c r="L54" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="M54" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="N54" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="O54" s="32" t="s">
+      <c r="N54" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="O54" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="P54" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q54" s="32" t="s">
+      <c r="P54" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q54" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="R54" s="22" t="s">
+      <c r="R54" s="24" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="55" spans="2:18">
-      <c r="B55" s="15" t="s">
-        <v>123</v>
-      </c>
-      <c r="C55" s="18"/>
-      <c r="D55" s="18"/>
-      <c r="E55" s="22" t="s">
+      <c r="B55" s="16" t="s">
         <v>124</v>
+      </c>
+      <c r="C55" s="19"/>
+      <c r="D55" s="19"/>
+      <c r="E55" s="24" t="s">
+        <v>125</v>
       </c>
       <c r="F55" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="G55" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="H55" s="22" t="s">
+      <c r="G55" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="H55" s="24" t="s">
         <v>20</v>
       </c>
       <c r="I55" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="J55" s="21" t="s">
+      <c r="J55" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="K55" s="32"/>
-      <c r="L55" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="M55" s="32"/>
-      <c r="N55" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="O55" s="32"/>
-      <c r="P55" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q55" s="32"/>
-      <c r="R55" s="22" t="s">
+      <c r="K55" s="35"/>
+      <c r="L55" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="M55" s="35"/>
+      <c r="N55" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="O55" s="35"/>
+      <c r="P55" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q55" s="35"/>
+      <c r="R55" s="24" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="56" spans="2:18">
-      <c r="B56" s="15" t="s">
-        <v>125</v>
-      </c>
-      <c r="C56" s="18"/>
-      <c r="D56" s="18"/>
-      <c r="E56" s="22" t="s">
+      <c r="B56" s="16" t="s">
         <v>126</v>
+      </c>
+      <c r="C56" s="19"/>
+      <c r="D56" s="19"/>
+      <c r="E56" s="24" t="s">
+        <v>127</v>
       </c>
       <c r="F56" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="G56" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="H56" s="22" t="s">
+      <c r="G56" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="H56" s="24" t="s">
         <v>20</v>
       </c>
       <c r="I56" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="J56" s="21" t="s">
+      <c r="J56" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="K56" s="32"/>
-      <c r="L56" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="M56" s="32"/>
-      <c r="N56" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="O56" s="32"/>
-      <c r="P56" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q56" s="32"/>
-      <c r="R56" s="22" t="s">
+      <c r="K56" s="35"/>
+      <c r="L56" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="M56" s="35"/>
+      <c r="N56" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="O56" s="35"/>
+      <c r="P56" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q56" s="35"/>
+      <c r="R56" s="24" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="57" spans="2:18">
-      <c r="B57" s="15" t="s">
-        <v>127</v>
-      </c>
-      <c r="C57" s="18"/>
-      <c r="D57" s="18"/>
-      <c r="E57" s="22" t="s">
+      <c r="B57" s="16" t="s">
         <v>128</v>
+      </c>
+      <c r="C57" s="19"/>
+      <c r="D57" s="19"/>
+      <c r="E57" s="24" t="s">
+        <v>129</v>
       </c>
       <c r="F57" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="G57" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="H57" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="I57" s="22" t="s">
-        <v>129</v>
-      </c>
-      <c r="J57" s="34" t="s">
-        <v>129</v>
-      </c>
-      <c r="K57" s="32"/>
-      <c r="L57" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="M57" s="32"/>
-      <c r="N57" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="O57" s="32"/>
-      <c r="P57" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q57" s="32"/>
-      <c r="R57" s="22" t="s">
+      <c r="G57" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="H57" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="I57" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="J57" s="37" t="s">
+        <v>130</v>
+      </c>
+      <c r="K57" s="35"/>
+      <c r="L57" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="M57" s="35"/>
+      <c r="N57" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="O57" s="35"/>
+      <c r="P57" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q57" s="35"/>
+      <c r="R57" s="24" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="58" spans="2:18">
-      <c r="B58" s="15" t="s">
-        <v>130</v>
-      </c>
-      <c r="C58" s="18"/>
-      <c r="D58" s="18"/>
-      <c r="E58" s="22" t="s">
+      <c r="B58" s="16" t="s">
         <v>131</v>
+      </c>
+      <c r="C58" s="19"/>
+      <c r="D58" s="19"/>
+      <c r="E58" s="24" t="s">
+        <v>132</v>
       </c>
       <c r="F58" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="G58" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="H58" s="22" t="s">
+      <c r="G58" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="H58" s="24" t="s">
         <v>20</v>
       </c>
       <c r="I58" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="J58" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="K58" s="32"/>
-      <c r="L58" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="M58" s="32"/>
-      <c r="N58" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="O58" s="32"/>
-      <c r="P58" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q58" s="32"/>
-      <c r="R58" s="22" t="s">
+      <c r="J58" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="K58" s="35"/>
+      <c r="L58" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="M58" s="35"/>
+      <c r="N58" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="O58" s="35"/>
+      <c r="P58" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q58" s="35"/>
+      <c r="R58" s="24" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="59" spans="2:18">
-      <c r="B59" s="15" t="s">
-        <v>132</v>
-      </c>
-      <c r="C59" s="18"/>
-      <c r="D59" s="18"/>
-      <c r="E59" s="22" t="s">
+      <c r="B59" s="16" t="s">
         <v>133</v>
+      </c>
+      <c r="C59" s="19"/>
+      <c r="D59" s="19"/>
+      <c r="E59" s="24" t="s">
+        <v>134</v>
       </c>
       <c r="F59" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="G59" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="H59" s="22" t="s">
+      <c r="G59" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="H59" s="24" t="s">
         <v>20</v>
       </c>
       <c r="I59" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="J59" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="K59" s="32"/>
-      <c r="L59" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="M59" s="32"/>
-      <c r="N59" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="O59" s="32"/>
-      <c r="P59" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q59" s="32"/>
-      <c r="R59" s="22" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="60" s="3" customFormat="1"/>
+      <c r="J59" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="K59" s="35"/>
+      <c r="L59" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="M59" s="35"/>
+      <c r="N59" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="O59" s="35"/>
+      <c r="P59" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q59" s="35"/>
+      <c r="R59" s="24" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="60" s="3" customFormat="1" spans="2:2">
+      <c r="B60" s="31"/>
+    </row>
     <row r="61" s="1" customFormat="1" customHeight="1" spans="2:18">
-      <c r="B61" s="11"/>
-      <c r="C61" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="D61" s="18" t="s">
+      <c r="B61" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="E61" s="18" t="s">
+      <c r="C61" s="15" t="s">
         <v>136</v>
       </c>
-      <c r="F61" s="18" t="s">
+      <c r="D61" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="E61" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="F61" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="G61" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="H61" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="I61" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="J61" s="22" t="s">
+      <c r="G61" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="H61" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="I61" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="J61" s="24" t="s">
         <v>20</v>
       </c>
       <c r="K61" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="L61" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="L61" s="20" t="s">
         <v>18</v>
       </c>
       <c r="M61" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="N61" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="O61" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="P61" s="19" t="s">
         <v>140</v>
       </c>
-      <c r="Q61" s="11" t="s">
+      <c r="N61" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="O61" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="P61" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q61" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="R61" s="20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="62" s="1" customFormat="1" spans="2:18">
+      <c r="B62" s="15" t="s">
         <v>141</v>
       </c>
-      <c r="R61" s="19" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="62" s="1" customFormat="1" spans="2:18">
-      <c r="B62" s="11"/>
-      <c r="C62" s="18"/>
-      <c r="D62" s="18"/>
-      <c r="E62" s="18" t="s">
+      <c r="C62" s="19"/>
+      <c r="D62" s="19"/>
+      <c r="E62" s="19" t="s">
         <v>142</v>
       </c>
-      <c r="F62" s="18" t="s">
+      <c r="F62" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="G62" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="H62" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="I62" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="J62" s="22" t="s">
+      <c r="G62" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="H62" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="I62" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="J62" s="24" t="s">
         <v>20</v>
       </c>
       <c r="K62" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="L62" s="19" t="s">
+      <c r="L62" s="20" t="s">
         <v>18</v>
       </c>
       <c r="M62" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="N62" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="O62" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="P62" s="19" t="s">
-        <v>140</v>
-      </c>
-      <c r="Q62" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="R62" s="19" t="s">
-        <v>140</v>
+      <c r="N62" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="O62" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="P62" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q62" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="R62" s="20" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="63" s="1" customFormat="1" spans="2:18">
-      <c r="B63" s="11"/>
-      <c r="C63" s="18"/>
-      <c r="D63" s="18"/>
-      <c r="E63" s="18" t="s">
+      <c r="B63" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="F63" s="18" t="s">
+      <c r="C63" s="19"/>
+      <c r="D63" s="19"/>
+      <c r="E63" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="F63" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="G63" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="H63" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="I63" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="J63" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="K63" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="L63" s="19" t="s">
+      <c r="G63" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="H63" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="I63" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="J63" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="K63" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="L63" s="20" t="s">
         <v>18</v>
       </c>
       <c r="M63" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="N63" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="O63" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="P63" s="19" t="s">
-        <v>140</v>
-      </c>
-      <c r="Q63" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="R63" s="19" t="s">
-        <v>140</v>
+        <v>147</v>
+      </c>
+      <c r="N63" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="O63" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="P63" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q63" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="R63" s="20" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="64" s="1" customFormat="1" ht="43.2" spans="2:18">
-      <c r="B64" s="11"/>
-      <c r="C64" s="18"/>
-      <c r="D64" s="18"/>
-      <c r="E64" s="18" t="s">
-        <v>147</v>
-      </c>
-      <c r="F64" s="18" t="s">
+      <c r="B64" s="15" t="s">
         <v>148</v>
       </c>
-      <c r="G64" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="H64" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="I64" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="J64" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="K64" s="1" t="s">
+      <c r="C64" s="19"/>
+      <c r="D64" s="19"/>
+      <c r="E64" s="19" t="s">
         <v>149</v>
       </c>
-      <c r="L64" s="21" t="s">
+      <c r="F64" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="G64" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="H64" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="I64" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="J64" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="K64" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="L64" s="23" t="s">
         <v>39</v>
       </c>
       <c r="M64" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="N64" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="O64" s="12" t="s">
         <v>150</v>
       </c>
-      <c r="N64" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="O64" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="P64" s="19" t="s">
-        <v>140</v>
-      </c>
-      <c r="Q64" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="R64" s="19" t="s">
-        <v>140</v>
+      <c r="P64" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q64" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="R64" s="20" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="65" s="1" customFormat="1" ht="28.05" customHeight="1" spans="2:18">
-      <c r="B65" s="11"/>
-      <c r="C65" s="18"/>
-      <c r="D65" s="18"/>
-      <c r="E65" s="18" t="s">
-        <v>151</v>
-      </c>
-      <c r="F65" s="18" t="s">
-        <v>152</v>
-      </c>
-      <c r="G65" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="H65" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="I65" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="J65" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="K65" s="1" t="s">
+      <c r="B65" s="15" t="s">
         <v>153</v>
       </c>
-      <c r="L65" s="21" t="s">
+      <c r="C65" s="19"/>
+      <c r="D65" s="19"/>
+      <c r="E65" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="F65" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="G65" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="H65" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="I65" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="J65" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="K65" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="L65" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="M65" s="45" t="s">
-        <v>154</v>
-      </c>
-      <c r="N65" s="21" t="s">
+      <c r="M65" s="48" t="s">
+        <v>157</v>
+      </c>
+      <c r="N65" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="O65" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="P65" s="19" t="s">
-        <v>140</v>
-      </c>
-      <c r="Q65" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="R65" s="19" t="s">
-        <v>140</v>
+      <c r="O65" s="49" t="s">
+        <v>158</v>
+      </c>
+      <c r="P65" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q65" s="49" t="s">
+        <v>158</v>
+      </c>
+      <c r="R65" s="20" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="66" s="1" customFormat="1" ht="28.05" customHeight="1" spans="2:18">
-      <c r="B66" s="11"/>
-      <c r="C66" s="18"/>
-      <c r="D66" s="18"/>
-      <c r="E66" s="18" t="s">
+      <c r="B66" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="C66" s="19"/>
+      <c r="D66" s="19"/>
+      <c r="E66" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="F66" s="19" t="s">
         <v>155</v>
       </c>
-      <c r="F66" s="18" t="s">
-        <v>152</v>
-      </c>
-      <c r="G66" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="H66" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="I66" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="J66" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="K66" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="L66" s="21" t="s">
+      <c r="G66" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="H66" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="I66" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="J66" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="K66" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="L66" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="M66" s="45" t="s">
-        <v>154</v>
-      </c>
-      <c r="N66" s="21" t="s">
+      <c r="M66" s="48" t="s">
+        <v>157</v>
+      </c>
+      <c r="N66" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="O66" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="P66" s="19" t="s">
-        <v>140</v>
-      </c>
-      <c r="Q66" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="R66" s="19" t="s">
-        <v>140</v>
+      <c r="O66" s="49" t="s">
+        <v>158</v>
+      </c>
+      <c r="P66" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q66" s="49" t="s">
+        <v>158</v>
+      </c>
+      <c r="R66" s="20" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="67" s="1" customFormat="1" ht="28.8" spans="2:18">
-      <c r="B67" s="11"/>
-      <c r="C67" s="18"/>
-      <c r="D67" s="18"/>
-      <c r="E67" s="18" t="s">
-        <v>156</v>
-      </c>
-      <c r="F67" s="18" t="s">
-        <v>157</v>
-      </c>
-      <c r="G67" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="H67" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="I67" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="J67" s="22" t="s">
+      <c r="B67" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="C67" s="19"/>
+      <c r="D67" s="19"/>
+      <c r="E67" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="F67" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="G67" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="H67" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="I67" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="J67" s="24" t="s">
         <v>20</v>
       </c>
       <c r="K67" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="L67" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="L67" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="M67" s="45" t="s">
-        <v>159</v>
-      </c>
-      <c r="N67" s="21" t="s">
+      <c r="M67" s="48" t="s">
+        <v>165</v>
+      </c>
+      <c r="N67" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="O67" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="P67" s="19" t="s">
-        <v>140</v>
-      </c>
-      <c r="Q67" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="R67" s="19" t="s">
-        <v>140</v>
+      <c r="O67" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="P67" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q67" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="R67" s="20" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="68" s="1" customFormat="1" spans="2:18">
-      <c r="B68" s="11"/>
-      <c r="C68" s="18"/>
-      <c r="D68" s="18"/>
-      <c r="E68" s="18" t="s">
+      <c r="B68" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="C68" s="19"/>
+      <c r="D68" s="19"/>
+      <c r="E68" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="F68" s="18" t="s">
+      <c r="F68" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="G68" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="H68" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="I68" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="J68" s="22" t="s">
+      <c r="G68" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="H68" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="I68" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="J68" s="24" t="s">
         <v>20</v>
       </c>
       <c r="K68" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="L68" s="19" t="s">
+        <v>168</v>
+      </c>
+      <c r="L68" s="20" t="s">
         <v>18</v>
       </c>
       <c r="M68" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="N68" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="O68" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="P68" s="19" t="s">
-        <v>140</v>
-      </c>
-      <c r="Q68" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="R68" s="19" t="s">
-        <v>140</v>
+        <v>169</v>
+      </c>
+      <c r="N68" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="O68" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="P68" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q68" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="R68" s="20" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="69" s="4" customFormat="1" spans="2:8">
-      <c r="B69" s="35"/>
-      <c r="D69" s="36"/>
-      <c r="E69" s="35"/>
-      <c r="F69" s="35"/>
-      <c r="G69" s="35"/>
-      <c r="H69" s="35"/>
+      <c r="B69" s="38"/>
+      <c r="D69" s="39"/>
+      <c r="E69" s="40"/>
+      <c r="F69" s="40"/>
+      <c r="G69" s="40"/>
+      <c r="H69" s="40"/>
     </row>
     <row r="70" customFormat="1" spans="1:18">
-      <c r="A70" s="8"/>
-      <c r="B70" s="9"/>
-      <c r="C70" s="14" t="s">
-        <v>162</v>
-      </c>
-      <c r="D70" s="18" t="s">
-        <v>163</v>
-      </c>
-      <c r="E70" s="18" t="s">
-        <v>164</v>
-      </c>
-      <c r="F70" s="18" t="s">
-        <v>165</v>
-      </c>
-      <c r="G70" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="H70" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="I70" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="J70" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="K70" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="L70" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="M70" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="N70" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="O70" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="P70" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q70" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="R70" s="19" t="s">
-        <v>140</v>
+      <c r="A70" s="7"/>
+      <c r="B70" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="C70" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="D70" s="19" t="s">
+        <v>172</v>
+      </c>
+      <c r="E70" s="19" t="s">
+        <v>173</v>
+      </c>
+      <c r="F70" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="G70" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="H70" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="I70" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="J70" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="K70" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="L70" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="M70" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="N70" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="O70" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="P70" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q70" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="R70" s="20" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="71" customFormat="1" spans="1:18">
-      <c r="A71" s="8"/>
-      <c r="B71" s="9"/>
-      <c r="C71" s="14"/>
-      <c r="D71" s="18"/>
-      <c r="E71" s="18" t="s">
-        <v>166</v>
-      </c>
-      <c r="F71" s="18" t="s">
-        <v>165</v>
-      </c>
-      <c r="G71" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="H71" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="I71" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="J71" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="K71" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="L71" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="M71" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="N71" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="O71" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="P71" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q71" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="R71" s="19" t="s">
-        <v>140</v>
+      <c r="A71" s="7"/>
+      <c r="B71" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="C71" s="15"/>
+      <c r="D71" s="19"/>
+      <c r="E71" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="F71" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="G71" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="H71" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="I71" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="J71" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="K71" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="L71" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="M71" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="N71" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="O71" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="P71" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q71" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="R71" s="20" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="72" customFormat="1" spans="1:18">
-      <c r="A72" s="8"/>
-      <c r="B72" s="9"/>
-      <c r="C72" s="14"/>
-      <c r="D72" s="18"/>
-      <c r="E72" s="18" t="s">
-        <v>167</v>
-      </c>
-      <c r="F72" s="18" t="s">
-        <v>168</v>
-      </c>
-      <c r="G72" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="H72" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="I72" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="J72" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="K72" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="L72" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="M72" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="N72" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="O72" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="P72" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q72" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="R72" s="19" t="s">
-        <v>140</v>
+      <c r="A72" s="7"/>
+      <c r="B72" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="C72" s="15"/>
+      <c r="D72" s="19"/>
+      <c r="E72" s="19" t="s">
+        <v>178</v>
+      </c>
+      <c r="F72" s="19" t="s">
+        <v>179</v>
+      </c>
+      <c r="G72" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="H72" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="I72" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="J72" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="K72" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="L72" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="M72" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="N72" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="O72" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="P72" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q72" s="19" t="s">
+        <v>179</v>
+      </c>
+      <c r="R72" s="20" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="73" customFormat="1" spans="1:18">
-      <c r="A73" s="8"/>
-      <c r="B73" s="9"/>
-      <c r="C73" s="14"/>
-      <c r="D73" s="18"/>
-      <c r="E73" s="18" t="s">
-        <v>169</v>
-      </c>
-      <c r="F73" s="18" t="s">
-        <v>168</v>
-      </c>
-      <c r="G73" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="H73" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="I73" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="J73" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="K73" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="L73" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="M73" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="N73" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="O73" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="P73" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q73" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="R73" s="19" t="s">
-        <v>140</v>
+      <c r="A73" s="7"/>
+      <c r="B73" s="16" t="s">
+        <v>180</v>
+      </c>
+      <c r="C73" s="15"/>
+      <c r="D73" s="19"/>
+      <c r="E73" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="F73" s="19" t="s">
+        <v>179</v>
+      </c>
+      <c r="G73" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="H73" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="I73" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="J73" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="K73" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="L73" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="M73" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="N73" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="O73" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="P73" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q73" s="19" t="s">
+        <v>179</v>
+      </c>
+      <c r="R73" s="20" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="74" customFormat="1" spans="1:18">
-      <c r="A74" s="8"/>
-      <c r="B74" s="9"/>
-      <c r="C74" s="14"/>
-      <c r="D74" s="18"/>
-      <c r="E74" s="18" t="s">
-        <v>170</v>
-      </c>
-      <c r="F74" s="18" t="s">
-        <v>168</v>
-      </c>
-      <c r="G74" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="H74" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="I74" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="J74" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="K74" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="L74" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="M74" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="N74" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="O74" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="P74" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q74" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="R74" s="19" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="75" s="5" customFormat="1"/>
-    <row r="76" customHeight="1" spans="3:18">
-      <c r="C76" s="14" t="s">
-        <v>171</v>
-      </c>
-      <c r="D76" s="18" t="s">
-        <v>172</v>
-      </c>
-      <c r="E76" s="18" t="s">
-        <v>136</v>
-      </c>
-      <c r="F76" s="18" t="s">
+      <c r="A74" s="7"/>
+      <c r="B74" s="16" t="s">
+        <v>182</v>
+      </c>
+      <c r="C74" s="15"/>
+      <c r="D74" s="19"/>
+      <c r="E74" s="19" t="s">
+        <v>183</v>
+      </c>
+      <c r="F74" s="19" t="s">
+        <v>179</v>
+      </c>
+      <c r="G74" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="H74" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="I74" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="J74" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="K74" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="L74" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="M74" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="N74" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="O74" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="P74" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q74" s="19" t="s">
+        <v>179</v>
+      </c>
+      <c r="R74" s="20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="75" s="5" customFormat="1" spans="2:2">
+      <c r="B75" s="41"/>
+    </row>
+    <row r="76" customHeight="1" spans="2:18">
+      <c r="B76" s="16" t="s">
+        <v>184</v>
+      </c>
+      <c r="C76" s="15" t="s">
+        <v>185</v>
+      </c>
+      <c r="D76" s="19" t="s">
+        <v>186</v>
+      </c>
+      <c r="E76" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="F76" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="G76" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="H76" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="I76" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="J76" s="22" t="s">
+      <c r="G76" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="H76" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="I76" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="J76" s="24" t="s">
         <v>20</v>
       </c>
       <c r="K76" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="L76" s="19" t="s">
+      <c r="L76" s="20" t="s">
         <v>18</v>
       </c>
       <c r="M76" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="N76" s="19" t="s">
+      <c r="N76" s="20" t="s">
         <v>18</v>
       </c>
       <c r="O76" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="P76" s="19" t="s">
+      <c r="P76" s="20" t="s">
         <v>18</v>
       </c>
       <c r="Q76" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="R76" s="19" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="77" spans="3:18">
-      <c r="C77" s="18"/>
-      <c r="D77" s="18"/>
-      <c r="E77" s="18" t="s">
+      <c r="R76" s="20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18">
+      <c r="B77" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="C77" s="19"/>
+      <c r="D77" s="19"/>
+      <c r="E77" s="19" t="s">
         <v>142</v>
       </c>
-      <c r="F77" s="18" t="s">
+      <c r="F77" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="G77" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="H77" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="I77" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="J77" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="K77" s="18" t="s">
+      <c r="G77" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="H77" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="I77" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="J77" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="K77" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="L77" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="M77" s="18" t="s">
+      <c r="L77" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="M77" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="N77" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="O77" s="18" t="s">
+      <c r="N77" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="O77" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="P77" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q77" s="18" t="s">
+      <c r="P77" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q77" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="R77" s="19" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="78" spans="3:18">
-      <c r="C78" s="18"/>
-      <c r="D78" s="18"/>
-      <c r="E78" s="18" t="s">
-        <v>145</v>
-      </c>
-      <c r="F78" s="18" t="s">
+      <c r="R77" s="20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="78" spans="2:18">
+      <c r="B78" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="C78" s="19"/>
+      <c r="D78" s="19"/>
+      <c r="E78" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="F78" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="G78" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="H78" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="I78" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="J78" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="K78" s="18" t="s">
+      <c r="G78" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="H78" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="I78" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="J78" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="K78" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="L78" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="M78" s="18" t="s">
+      <c r="L78" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="M78" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="N78" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="O78" s="18" t="s">
+      <c r="N78" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="O78" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="P78" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q78" s="18" t="s">
+      <c r="P78" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q78" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="R78" s="19" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="79" ht="57.6" spans="3:18">
-      <c r="C79" s="18"/>
-      <c r="D79" s="18"/>
-      <c r="E79" s="18" t="s">
-        <v>147</v>
-      </c>
-      <c r="F79" s="18" t="s">
-        <v>148</v>
-      </c>
-      <c r="G79" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="H79" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="I79" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="J79" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="K79" s="18" t="s">
-        <v>173</v>
-      </c>
-      <c r="L79" s="21" t="s">
+      <c r="R78" s="20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="79" ht="57.6" spans="2:18">
+      <c r="B79" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="C79" s="19"/>
+      <c r="D79" s="19"/>
+      <c r="E79" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="F79" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="G79" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="H79" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="I79" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="J79" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="K79" s="19" t="s">
+        <v>190</v>
+      </c>
+      <c r="L79" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="M79" s="18" t="s">
-        <v>148</v>
-      </c>
-      <c r="N79" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="O79" s="18" t="s">
-        <v>148</v>
-      </c>
-      <c r="P79" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q79" s="18" t="s">
-        <v>148</v>
-      </c>
-      <c r="R79" s="19" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="80" ht="28.8" spans="3:18">
-      <c r="C80" s="18"/>
-      <c r="D80" s="18"/>
-      <c r="E80" s="18" t="s">
-        <v>151</v>
-      </c>
-      <c r="F80" s="18" t="s">
-        <v>152</v>
-      </c>
-      <c r="G80" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="H80" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="I80" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="J80" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="K80" s="18" t="s">
-        <v>174</v>
-      </c>
-      <c r="L80" s="21" t="s">
+      <c r="M79" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="N79" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="O79" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="P79" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q79" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="R79" s="20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="80" ht="28.8" spans="2:18">
+      <c r="B80" s="16" t="s">
+        <v>191</v>
+      </c>
+      <c r="C80" s="19"/>
+      <c r="D80" s="19"/>
+      <c r="E80" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="F80" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="G80" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="H80" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="I80" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="J80" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="K80" s="19" t="s">
+        <v>192</v>
+      </c>
+      <c r="L80" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="M80" s="18" t="s">
-        <v>175</v>
-      </c>
-      <c r="N80" s="21" t="s">
+      <c r="M80" s="19" t="s">
+        <v>193</v>
+      </c>
+      <c r="N80" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="O80" s="18" t="s">
-        <v>176</v>
-      </c>
-      <c r="P80" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q80" s="18" t="s">
-        <v>176</v>
-      </c>
-      <c r="R80" s="19" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="81" ht="28.8" spans="3:18">
-      <c r="C81" s="18"/>
-      <c r="D81" s="18"/>
-      <c r="E81" s="18" t="s">
+      <c r="O80" s="19" t="s">
+        <v>194</v>
+      </c>
+      <c r="P80" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q80" s="19" t="s">
+        <v>194</v>
+      </c>
+      <c r="R80" s="20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="81" ht="28.8" spans="2:18">
+      <c r="B81" s="16" t="s">
+        <v>195</v>
+      </c>
+      <c r="C81" s="19"/>
+      <c r="D81" s="19"/>
+      <c r="E81" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="F81" s="19" t="s">
         <v>155</v>
       </c>
-      <c r="F81" s="18" t="s">
-        <v>152</v>
-      </c>
-      <c r="G81" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="H81" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="I81" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="J81" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="K81" s="18" t="s">
-        <v>175</v>
-      </c>
-      <c r="L81" s="21" t="s">
+      <c r="G81" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="H81" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="I81" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="J81" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="K81" s="19" t="s">
+        <v>193</v>
+      </c>
+      <c r="L81" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="M81" s="18" t="s">
-        <v>175</v>
-      </c>
-      <c r="N81" s="21" t="s">
+      <c r="M81" s="19" t="s">
+        <v>193</v>
+      </c>
+      <c r="N81" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="O81" s="18" t="s">
-        <v>177</v>
-      </c>
-      <c r="P81" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q81" s="18" t="s">
-        <v>177</v>
-      </c>
-      <c r="R81" s="19" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="82" ht="43.2" spans="3:18">
-      <c r="C82" s="18"/>
-      <c r="D82" s="18"/>
-      <c r="E82" s="18" t="s">
-        <v>156</v>
-      </c>
-      <c r="F82" s="18" t="s">
-        <v>178</v>
-      </c>
-      <c r="G82" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="H82" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="I82" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="J82" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="K82" s="18" t="s">
-        <v>174</v>
-      </c>
-      <c r="L82" s="21" t="s">
+      <c r="O81" s="19" t="s">
+        <v>196</v>
+      </c>
+      <c r="P81" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q81" s="19" t="s">
+        <v>196</v>
+      </c>
+      <c r="R81" s="20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="82" ht="43.2" spans="2:18">
+      <c r="B82" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="C82" s="19"/>
+      <c r="D82" s="19"/>
+      <c r="E82" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="F82" s="19" t="s">
+        <v>198</v>
+      </c>
+      <c r="G82" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="H82" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="I82" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="J82" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="K82" s="19" t="s">
+        <v>199</v>
+      </c>
+      <c r="L82" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="M82" s="18" t="s">
-        <v>179</v>
-      </c>
-      <c r="N82" s="21" t="s">
+      <c r="M82" s="19" t="s">
+        <v>200</v>
+      </c>
+      <c r="N82" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="O82" s="18" t="s">
-        <v>180</v>
-      </c>
-      <c r="P82" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q82" s="18" t="s">
-        <v>180</v>
-      </c>
-      <c r="R82" s="19" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="83" spans="3:18">
-      <c r="C83" s="18"/>
-      <c r="D83" s="18"/>
-      <c r="E83" s="18" t="s">
+      <c r="O82" s="19" t="s">
+        <v>198</v>
+      </c>
+      <c r="P82" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q82" s="19" t="s">
+        <v>198</v>
+      </c>
+      <c r="R82" s="20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="83" spans="2:18">
+      <c r="B83" s="16" t="s">
+        <v>201</v>
+      </c>
+      <c r="C83" s="19"/>
+      <c r="D83" s="19"/>
+      <c r="E83" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="F83" s="18" t="s">
+      <c r="F83" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="G83" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="H83" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="I83" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="J83" s="22" t="s">
+      <c r="G83" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="H83" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="I83" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="J83" s="24" t="s">
         <v>20</v>
       </c>
       <c r="K83" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="L83" s="19" t="s">
+      <c r="L83" s="20" t="s">
         <v>18</v>
       </c>
       <c r="M83" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="N83" s="19" t="s">
+      <c r="N83" s="20" t="s">
         <v>18</v>
       </c>
       <c r="O83" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="P83" s="19" t="s">
+      <c r="P83" s="20" t="s">
         <v>18</v>
       </c>
       <c r="Q83" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="R83" s="19" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="84" s="6" customFormat="1" spans="2:8">
-      <c r="B84" s="37"/>
-      <c r="D84" s="38"/>
-      <c r="E84" s="37"/>
-      <c r="F84" s="37"/>
-      <c r="G84" s="37"/>
-      <c r="H84" s="37"/>
-    </row>
-    <row r="85" spans="3:18">
-      <c r="C85" s="14" t="s">
+      <c r="R83" s="20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="84" s="4" customFormat="1" spans="2:8">
+      <c r="B84" s="38"/>
+      <c r="D84" s="39"/>
+      <c r="E84" s="40"/>
+      <c r="F84" s="40"/>
+      <c r="G84" s="40"/>
+      <c r="H84" s="40"/>
+    </row>
+    <row r="85" spans="2:18">
+      <c r="B85" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="C85" s="15" t="s">
+        <v>203</v>
+      </c>
+      <c r="D85" s="19" t="s">
+        <v>172</v>
+      </c>
+      <c r="E85" s="19" t="s">
+        <v>173</v>
+      </c>
+      <c r="F85" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="G85" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="H85" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="I85" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="J85" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="K85" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="L85" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="M85" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="N85" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="O85" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="P85" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q85" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="R85" s="20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="86" spans="2:18">
+      <c r="B86" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="C86" s="15"/>
+      <c r="D86" s="19"/>
+      <c r="E86" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="F86" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="G86" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="H86" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="I86" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="J86" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="K86" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="L86" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="M86" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="N86" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="O86" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="P86" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q86" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="R86" s="20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="87" spans="2:18">
+      <c r="B87" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="C87" s="15"/>
+      <c r="D87" s="19"/>
+      <c r="E87" s="19" t="s">
+        <v>178</v>
+      </c>
+      <c r="F87" s="19" t="s">
+        <v>179</v>
+      </c>
+      <c r="G87" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="H87" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="I87" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="J87" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="K87" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="L87" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="M87" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="N87" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="O87" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="P87" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q87" s="19" t="s">
+        <v>179</v>
+      </c>
+      <c r="R87" s="20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="88" spans="2:18">
+      <c r="B88" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="C88" s="15"/>
+      <c r="D88" s="19"/>
+      <c r="E88" s="19" t="s">
         <v>181</v>
       </c>
-      <c r="D85" s="18" t="s">
-        <v>163</v>
-      </c>
-      <c r="E85" s="18" t="s">
-        <v>164</v>
-      </c>
-      <c r="F85" s="18" t="s">
-        <v>165</v>
-      </c>
-      <c r="G85" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="H85" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="I85" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="J85" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="K85" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="L85" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="M85" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="N85" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="O85" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="P85" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q85" s="18" t="s">
-        <v>165</v>
-      </c>
-      <c r="R85" s="19" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="86" spans="3:18">
-      <c r="C86" s="14"/>
-      <c r="D86" s="18"/>
-      <c r="E86" s="18" t="s">
-        <v>166</v>
-      </c>
-      <c r="F86" s="18" t="s">
-        <v>165</v>
-      </c>
-      <c r="G86" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="H86" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="I86" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="J86" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="K86" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="L86" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="M86" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="N86" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="O86" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="P86" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q86" s="18" t="s">
-        <v>165</v>
-      </c>
-      <c r="R86" s="19" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="87" spans="3:18">
-      <c r="C87" s="14"/>
-      <c r="D87" s="18"/>
-      <c r="E87" s="18" t="s">
-        <v>167</v>
-      </c>
-      <c r="F87" s="18" t="s">
-        <v>168</v>
-      </c>
-      <c r="G87" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="H87" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="I87" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="J87" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="K87" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="L87" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="M87" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="N87" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="O87" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="P87" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q87" s="18" t="s">
-        <v>168</v>
-      </c>
-      <c r="R87" s="19" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="88" spans="3:18">
-      <c r="C88" s="14"/>
-      <c r="D88" s="18"/>
-      <c r="E88" s="18" t="s">
-        <v>169</v>
-      </c>
-      <c r="F88" s="18" t="s">
-        <v>168</v>
-      </c>
-      <c r="G88" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="H88" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="I88" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="J88" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="K88" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="L88" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="M88" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="N88" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="O88" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="P88" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q88" s="18" t="s">
-        <v>168</v>
-      </c>
-      <c r="R88" s="19" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="89" spans="3:18">
-      <c r="C89" s="14"/>
-      <c r="D89" s="18"/>
-      <c r="E89" s="18" t="s">
-        <v>170</v>
-      </c>
-      <c r="F89" s="11" t="s">
-        <v>182</v>
-      </c>
-      <c r="G89" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="H89" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="I89" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="J89" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="K89" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="L89" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="M89" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="N89" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="O89" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="P89" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q89" s="11" t="s">
-        <v>182</v>
-      </c>
-      <c r="R89" s="19" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="90" s="7" customFormat="1" spans="2:16">
-      <c r="B90" s="39"/>
-      <c r="C90" s="40"/>
-      <c r="D90" s="41"/>
-      <c r="E90" s="42"/>
-      <c r="F90" s="42"/>
-      <c r="G90" s="43"/>
-      <c r="H90" s="43"/>
-      <c r="I90" s="43"/>
-      <c r="J90" s="43"/>
-      <c r="K90" s="42"/>
-      <c r="L90" s="46"/>
-      <c r="M90" s="42"/>
-      <c r="N90" s="46"/>
-      <c r="O90" s="42"/>
-      <c r="P90" s="47"/>
+      <c r="F88" s="19" t="s">
+        <v>179</v>
+      </c>
+      <c r="G88" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="H88" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="I88" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="J88" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="K88" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="L88" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="M88" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="N88" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="O88" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="P88" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q88" s="19" t="s">
+        <v>179</v>
+      </c>
+      <c r="R88" s="20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="89" spans="2:18">
+      <c r="B89" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="C89" s="15"/>
+      <c r="D89" s="19"/>
+      <c r="E89" s="19" t="s">
+        <v>183</v>
+      </c>
+      <c r="F89" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="G89" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="H89" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="I89" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="J89" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="K89" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="L89" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="M89" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="N89" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="O89" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="P89" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q89" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="R89" s="20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="90" s="6" customFormat="1" spans="2:16">
+      <c r="B90" s="42"/>
+      <c r="C90" s="43"/>
+      <c r="D90" s="44"/>
+      <c r="E90" s="45"/>
+      <c r="F90" s="45"/>
+      <c r="G90" s="46"/>
+      <c r="H90" s="46"/>
+      <c r="I90" s="46"/>
+      <c r="J90" s="46"/>
+      <c r="K90" s="45"/>
+      <c r="L90" s="50"/>
+      <c r="M90" s="45"/>
+      <c r="N90" s="50"/>
+      <c r="O90" s="45"/>
+      <c r="P90" s="51"/>
     </row>
     <row r="91" spans="3:16">
-      <c r="C91" s="44"/>
-      <c r="D91" s="45"/>
-      <c r="E91" s="18"/>
-      <c r="F91" s="18"/>
-      <c r="G91" s="22"/>
-      <c r="H91" s="22"/>
-      <c r="I91" s="22"/>
-      <c r="J91" s="22"/>
-      <c r="K91" s="18"/>
-      <c r="L91" s="21"/>
-      <c r="M91" s="18"/>
-      <c r="N91" s="21"/>
-      <c r="O91" s="18"/>
-      <c r="P91" s="19"/>
+      <c r="C91" s="47"/>
+      <c r="D91" s="48"/>
+      <c r="E91" s="19"/>
+      <c r="F91" s="19"/>
+      <c r="G91" s="24"/>
+      <c r="H91" s="24"/>
+      <c r="I91" s="24"/>
+      <c r="J91" s="24"/>
+      <c r="K91" s="19"/>
+      <c r="L91" s="23"/>
+      <c r="M91" s="19"/>
+      <c r="N91" s="23"/>
+      <c r="O91" s="19"/>
+      <c r="P91" s="20"/>
     </row>
     <row r="92" spans="3:16">
-      <c r="C92" s="44"/>
-      <c r="D92" s="45"/>
-      <c r="E92" s="18"/>
-      <c r="F92" s="18"/>
-      <c r="G92" s="22"/>
-      <c r="H92" s="22"/>
-      <c r="I92" s="22"/>
-      <c r="J92" s="22"/>
+      <c r="C92" s="47"/>
+      <c r="D92" s="48"/>
+      <c r="E92" s="19"/>
+      <c r="F92" s="19"/>
+      <c r="G92" s="24"/>
+      <c r="H92" s="24"/>
+      <c r="I92" s="24"/>
+      <c r="J92" s="24"/>
       <c r="K92" s="9"/>
-      <c r="L92" s="19"/>
+      <c r="L92" s="20"/>
       <c r="M92" s="9"/>
-      <c r="N92" s="19"/>
+      <c r="N92" s="20"/>
       <c r="O92" s="9"/>
-      <c r="P92" s="19"/>
+      <c r="P92" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="52">
